--- a/data/qgdpstate0120_0_bea.xlsx
+++ b/data/qgdpstate0120_0_bea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\REGIONAL\newsrel\working\0120gdpstate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmk/corona_tscs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5947423D-DBA4-4F20-AE6E-D07983AC3D9F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C906208-01B4-4B4E-A0FE-5E6C225EB7A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25960" windowHeight="15580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="9" r:id="rId1"/>
@@ -28,20 +28,12 @@
     <definedName name="test2">#REF!</definedName>
     <definedName name="testestest">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="96">
   <si>
     <t/>
   </si>
@@ -100,9 +92,6 @@
     <t>Real estate and rental and leasing</t>
   </si>
   <si>
-    <t>Percent of the U.S.</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -116,9 +105,6 @@
   </si>
   <si>
     <t>Mining, quarrying, and oil and gas extraction</t>
-  </si>
-  <si>
-    <t>Millions of dollars</t>
   </si>
   <si>
     <t>Administrative and support and waste management and remediation services</t>
@@ -313,22 +299,13 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>Overseas activity 1/</t>
-  </si>
-  <si>
     <t>United States</t>
-  </si>
-  <si>
-    <t>1.  Economic activity taking place outside the borders of the United States by the military and associated federal civilian support staff.</t>
   </si>
   <si>
     <t>.......</t>
   </si>
   <si>
     <t>Agriculture, forestry, fishing and hunting</t>
-  </si>
-  <si>
-    <t>Table 3. Current-Dollar Gross Domestic Product (GDP) by State and Region, 2018:Q1-2019:Q3</t>
   </si>
   <si>
     <t>Table 2. Contributions to Percent Change in Real Gross Domestic Product (GDP) by State and Region, 2019:Q2-2019:Q3--Table Ends</t>
@@ -342,6 +319,9 @@
   <si>
     <t>Rank 2019:Q3</t>
   </si>
+  <si>
+    <t>state</t>
+  </si>
 </sst>
 </file>
 
@@ -350,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -387,11 +367,6 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -556,15 +531,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -572,7 +538,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -631,9 +597,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -643,26 +606,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -671,7 +619,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -731,15 +679,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,65 +686,7 @@
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F28D86E1-5413-4CFB-9571-6E0B1659110E}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{A141F01F-23CF-4B55-865A-F4C95C51C813}"/>
   </cellStyles>
-  <dxfs count="111">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="91">
     <dxf>
       <font>
         <b val="0"/>
@@ -823,184 +704,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1060,7 +764,124 @@
         <name val="Arial Narrow"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1097,475 +918,6 @@
         <left style="thin">
           <color indexed="8"/>
         </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Arial Narrow"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
         <right style="thin">
           <color indexed="8"/>
         </right>
@@ -3817,7 +3169,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{24D50755-9D35-4694-BC30-C946C5EE6832}">
-      <tableStyleElement type="secondRowStripe" dxfId="110"/>
+      <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3832,81 +3184,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D1EEFB5-8A30-471E-A356-431254BF5A75}" name="Table162" displayName="Table162" ref="A5:J64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" tableBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D1EEFB5-8A30-471E-A356-431254BF5A75}" name="Table162" displayName="Table162" ref="A5:J64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C08979AD-DA83-48E4-B77E-DF51E41E07A1}" name="Column1" headerRowDxfId="106" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{D4108F06-D05E-4BF1-B750-DF23E90C5E4F}" name="Column4" headerRowDxfId="104" dataDxfId="103"/>
-    <tableColumn id="9" xr3:uid="{45D11B2F-A65F-4C4B-BAD7-3F8A365C86E4}" name="Column9" headerRowDxfId="102" dataDxfId="101"/>
-    <tableColumn id="17" xr3:uid="{9EED72FA-5A6F-4B4A-9D2A-0DFB9F7697FF}" name="Column3" headerRowDxfId="100" dataDxfId="99"/>
-    <tableColumn id="16" xr3:uid="{D7938C31-930C-46D9-8880-2F2DB687A4FA}" name="Column2" headerRowDxfId="98" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{B809ADB7-EA28-436A-8533-52A0E9B9A542}" name="Column10" headerRowDxfId="96" dataDxfId="95"/>
-    <tableColumn id="11" xr3:uid="{7592520A-6F49-40FE-8E76-2D94CB155596}" name="Column11" headerRowDxfId="94" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{90C938B0-0DD6-4980-9B24-1D84BF00E7AC}" name="Column6" headerRowDxfId="92" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{4A39B976-20D2-41FC-873C-2B4BCF9815B9}" name="Column5" headerRowDxfId="90" dataDxfId="89"/>
-    <tableColumn id="18" xr3:uid="{AF0C30E6-8FE7-4940-AD3A-F78F60FCD222}" name="Column122" headerRowDxfId="88" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{C08979AD-DA83-48E4-B77E-DF51E41E07A1}" name="Column1" headerRowDxfId="86" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{D4108F06-D05E-4BF1-B750-DF23E90C5E4F}" name="Column4" headerRowDxfId="84" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{45D11B2F-A65F-4C4B-BAD7-3F8A365C86E4}" name="Column9" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="17" xr3:uid="{9EED72FA-5A6F-4B4A-9D2A-0DFB9F7697FF}" name="Column3" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="16" xr3:uid="{D7938C31-930C-46D9-8880-2F2DB687A4FA}" name="Column2" headerRowDxfId="78" dataDxfId="77"/>
+    <tableColumn id="10" xr3:uid="{B809ADB7-EA28-436A-8533-52A0E9B9A542}" name="Column10" headerRowDxfId="76" dataDxfId="75"/>
+    <tableColumn id="11" xr3:uid="{7592520A-6F49-40FE-8E76-2D94CB155596}" name="Column11" headerRowDxfId="74" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{90C938B0-0DD6-4980-9B24-1D84BF00E7AC}" name="Column6" headerRowDxfId="72" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{4A39B976-20D2-41FC-873C-2B4BCF9815B9}" name="Column5" headerRowDxfId="70" dataDxfId="69"/>
+    <tableColumn id="18" xr3:uid="{AF0C30E6-8FE7-4940-AD3A-F78F60FCD222}" name="Column122" headerRowDxfId="68" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A5:M64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A5:M64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" headerRowDxfId="83" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" headerRowDxfId="81" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3" headerRowDxfId="79" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4" headerRowDxfId="77" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5" headerRowDxfId="75" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6" headerRowDxfId="73" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column7" headerRowDxfId="71" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8" headerRowDxfId="69" dataDxfId="68"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column9" headerRowDxfId="67" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Column10" headerRowDxfId="65" dataDxfId="64"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Column11" headerRowDxfId="63" dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Column12" headerRowDxfId="61" dataDxfId="60"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Column13" headerRowDxfId="59" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" headerRowDxfId="63" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" headerRowDxfId="61" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3" headerRowDxfId="59" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4" headerRowDxfId="57" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5" headerRowDxfId="55" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6" headerRowDxfId="53" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column7" headerRowDxfId="51" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8" headerRowDxfId="49" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column9" headerRowDxfId="47" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Column10" headerRowDxfId="45" dataDxfId="44"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Column11" headerRowDxfId="43" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Column12" headerRowDxfId="41" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Column13" headerRowDxfId="39" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A5:K64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A5:K64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" headerRowDxfId="54" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column2" headerRowDxfId="52" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column3" headerRowDxfId="50" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Column4" headerRowDxfId="48" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Column5" headerRowDxfId="46" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Column6" headerRowDxfId="44" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column7" headerRowDxfId="42" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column8" headerRowDxfId="40" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Column9" headerRowDxfId="38" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Column10" headerRowDxfId="36" dataDxfId="35"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Column11" headerRowDxfId="34" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" headerRowDxfId="34" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column2" headerRowDxfId="32" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column3" headerRowDxfId="30" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Column4" headerRowDxfId="28" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Column5" headerRowDxfId="26" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Column6" headerRowDxfId="24" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column7" headerRowDxfId="22" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column8" headerRowDxfId="20" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Column9" headerRowDxfId="18" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Column10" headerRowDxfId="16" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Column11" headerRowDxfId="14" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2983C52F-7A52-471D-B939-3B366A6822A3}" name="Table46" displayName="Table46" ref="A6:O67" headerRowCount="0" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30">
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{E945F4BD-EE82-42C2-9144-AF28043AC79D}" name="Column1" headerRowDxfId="29" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{90C67742-5AD9-45B4-BDF6-B704F61F73E8}" name="Column8" headerRowDxfId="27" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{E4BA1EAE-9482-4388-B5F4-C8EAB1D62DB2}" name="Column7" headerRowDxfId="25" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{F7DABCD0-ACB7-45C0-B83B-9EAAAAB70432}" name="Column3" headerRowDxfId="23" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{1E0A97E2-3481-4E93-BBA9-767CA8CD41EA}" name="Column4" headerRowDxfId="21" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{58014D5A-2C4F-45C9-8BA9-ECD8F4E0265B}" name="Column5" headerRowDxfId="19" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{6D7B58FA-A479-44D6-930C-86673B7BF5BA}" name="Column12" headerRowDxfId="17" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{BB2BB47A-1FC2-42C5-9C80-C49A700591E4}" name="Column2" headerRowDxfId="15" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{CBF06DEC-FDE8-467E-990D-315325178266}" name="Column14" headerRowDxfId="13" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{5A0923C0-42CB-41A8-9322-50F8B5D79B1B}" name="Column13" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{B9DE209A-7D18-4F80-9454-6268B4238D51}" name="Column9" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{0499EA10-BE2F-4B28-A3DC-CDACCF7315A6}" name="Column10" headerRowDxfId="7" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{9E9F443A-11A7-45CA-B33F-CA73BB7FBBB0}" name="Column6" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{A526A66D-32E8-442A-8B5E-F22BA7CEFCD0}" name="Column15" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{FB4BB922-9750-4285-8C98-BD4DA597BD1D}" name="Column11" headerRowDxfId="1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2983C52F-7A52-471D-B939-3B366A6822A3}" name="Table46" displayName="Table46" ref="A2:E52" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E945F4BD-EE82-42C2-9144-AF28043AC79D}" name="Column1" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{1E0A97E2-3481-4E93-BBA9-767CA8CD41EA}" name="Column4" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{58014D5A-2C4F-45C9-8BA9-ECD8F4E0265B}" name="Column5" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{6D7B58FA-A479-44D6-930C-86673B7BF5BA}" name="Column12" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{BB2BB47A-1FC2-42C5-9C80-C49A700591E4}" name="Column2" headerRowDxfId="7" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4238,99 +3580,99 @@
   </sheetPr>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="19" customWidth="1"/>
-    <col min="2" max="10" width="14.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="22.6640625" style="19" customWidth="1"/>
+    <col min="2" max="10" width="14.6640625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="1"/>
+    <col min="12" max="16384" width="9.1640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="41">
+    <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33"/>
+      <c r="B2" s="35">
         <v>2018</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="45">
+      <c r="B3" s="36"/>
+      <c r="C3" s="39">
         <v>2018</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="50">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="44">
         <v>2019</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="49"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="20">
         <v>2.9</v>
@@ -4357,12 +3699,12 @@
         <v>2.1</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="20">
         <v>2.2000000000000002</v>
@@ -4389,12 +3731,12 @@
         <v>2.1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="21">
         <v>0.5</v>
@@ -4424,9 +3766,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="21">
         <v>2.2000000000000002</v>
@@ -4456,9 +3798,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="21">
         <v>3.1</v>
@@ -4488,9 +3830,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="21">
         <v>2.2999999999999998</v>
@@ -4520,9 +3862,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="21">
         <v>1.2</v>
@@ -4552,9 +3894,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="21">
         <v>1.2</v>
@@ -4584,9 +3926,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="20">
         <v>1.8</v>
@@ -4613,12 +3955,12 @@
         <v>1.2</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="21">
         <v>0</v>
@@ -4648,9 +3990,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="21">
         <v>2.5</v>
@@ -4677,12 +4019,12 @@
         <v>1.4</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="21">
         <v>2.5</v>
@@ -4712,9 +4054,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="21">
         <v>2.2000000000000002</v>
@@ -4744,9 +4086,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="21">
         <v>1.2</v>
@@ -4776,9 +4118,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="21">
         <v>2.6</v>
@@ -4808,9 +4150,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="20">
         <v>2.2000000000000002</v>
@@ -4837,12 +4179,12 @@
         <v>1.6</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="21">
         <v>2.1</v>
@@ -4872,9 +4214,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="21">
         <v>2</v>
@@ -4904,9 +4246,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="21">
         <v>2.5</v>
@@ -4936,9 +4278,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="21">
         <v>1.9</v>
@@ -4968,9 +4310,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="21">
         <v>2.4</v>
@@ -5000,9 +4342,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="20">
         <v>2.2999999999999998</v>
@@ -5029,12 +4371,12 @@
         <v>2</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="21">
         <v>2.2000000000000002</v>
@@ -5064,9 +4406,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="21">
         <v>2.1</v>
@@ -5096,9 +4438,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="21">
         <v>2.6</v>
@@ -5128,9 +4470,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="21">
         <v>2.4</v>
@@ -5160,9 +4502,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="21">
         <v>0.9</v>
@@ -5192,9 +4534,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="21">
         <v>3.6</v>
@@ -5224,9 +4566,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" s="21">
         <v>1.9</v>
@@ -5256,9 +4598,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="20">
         <v>2.6</v>
@@ -5285,12 +4627,12 @@
         <v>2.1</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="21">
         <v>2.8</v>
@@ -5320,9 +4662,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" s="21">
         <v>1.7</v>
@@ -5352,9 +4694,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="21">
         <v>3.2</v>
@@ -5384,9 +4726,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="21">
         <v>2.4</v>
@@ -5416,9 +4758,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" s="21">
         <v>1.4</v>
@@ -5448,9 +4790,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" s="21">
         <v>2.6</v>
@@ -5480,9 +4822,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B41" s="21">
         <v>1.3</v>
@@ -5512,9 +4854,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" s="21">
         <v>2.4</v>
@@ -5544,9 +4886,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="21">
         <v>2.6</v>
@@ -5576,9 +4918,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="21">
         <v>3.1</v>
@@ -5608,9 +4950,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="21">
         <v>2.6</v>
@@ -5640,9 +4982,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" s="21">
         <v>2.2999999999999998</v>
@@ -5672,9 +5014,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" s="20">
         <v>3.9</v>
@@ -5701,12 +5043,12 @@
         <v>3.5</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B48" s="21">
         <v>4.0999999999999996</v>
@@ -5736,9 +5078,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" s="21">
         <v>2.5</v>
@@ -5768,9 +5110,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="21">
         <v>2.6</v>
@@ -5800,9 +5142,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="21">
         <v>4</v>
@@ -5832,9 +5174,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B52" s="20">
         <v>3.3</v>
@@ -5861,12 +5203,12 @@
         <v>2.7</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="21">
         <v>3.5</v>
@@ -5896,9 +5238,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54" s="21">
         <v>4</v>
@@ -5928,9 +5270,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B55" s="21">
         <v>2.6</v>
@@ -5960,9 +5302,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B56" s="21">
         <v>3.7</v>
@@ -5992,9 +5334,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" s="21">
         <v>0.1</v>
@@ -6024,9 +5366,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B58" s="20">
         <v>4.3</v>
@@ -6053,12 +5395,12 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B59" s="21">
         <v>0.7</v>
@@ -6088,9 +5430,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" s="21">
         <v>4.3</v>
@@ -6120,9 +5462,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B61" s="21">
         <v>2.4</v>
@@ -6152,9 +5494,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B62" s="21">
         <v>4.2</v>
@@ -6184,9 +5526,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B63" s="21">
         <v>3.8</v>
@@ -6216,9 +5558,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" s="21">
         <v>5.8</v>
@@ -6248,19 +5590,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="37" t="s">
+    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6298,107 +5640,107 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="6" width="12.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="12.6640625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+    <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -6407,10 +5749,10 @@
         <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>7</v>
@@ -6428,9 +5770,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="5">
         <v>2.1</v>
@@ -6469,9 +5811,9 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5">
         <v>2.1</v>
@@ -6510,9 +5852,9 @@
         <v>-0.47</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="9">
         <v>2.1</v>
@@ -6551,9 +5893,9 @@
         <v>-0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="9">
         <v>2.1</v>
@@ -6592,9 +5934,9 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="9">
         <v>2.2000000000000002</v>
@@ -6633,9 +5975,9 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="9">
         <v>2.2000000000000002</v>
@@ -6674,9 +6016,9 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="9">
         <v>1.6</v>
@@ -6715,9 +6057,9 @@
         <v>-0.67</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="9">
         <v>1.8</v>
@@ -6756,9 +6098,9 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5">
         <v>1.2</v>
@@ -6797,9 +6139,9 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
@@ -6838,9 +6180,9 @@
         <v>-1.54</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="9">
         <v>1.4</v>
@@ -6879,9 +6221,9 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
@@ -6920,9 +6262,9 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="9">
         <v>2.2999999999999998</v>
@@ -6961,9 +6303,9 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="9">
         <v>0.5</v>
@@ -7002,9 +6344,9 @@
         <v>-1.28</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="9">
         <v>2.1</v>
@@ -7043,9 +6385,9 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="5">
         <v>1.6</v>
@@ -7084,9 +6426,9 @@
         <v>-0.53</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="9">
         <v>1.4</v>
@@ -7125,9 +6467,9 @@
         <v>-0.68</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="9">
         <v>2.2999999999999998</v>
@@ -7166,9 +6508,9 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="9">
         <v>1.3</v>
@@ -7207,9 +6549,9 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="9">
         <v>1.7</v>
@@ -7248,9 +6590,9 @@
         <v>-0.63</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="9">
         <v>1.5</v>
@@ -7289,9 +6631,9 @@
         <v>-0.51</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="5">
         <v>2</v>
@@ -7330,9 +6672,9 @@
         <v>-0.47</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="9">
         <v>1.3</v>
@@ -7371,9 +6713,9 @@
         <v>-0.97</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="9">
         <v>2.2000000000000002</v>
@@ -7412,9 +6754,9 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="9">
         <v>2</v>
@@ -7453,9 +6795,9 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="9">
         <v>2.4</v>
@@ -7494,9 +6836,9 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="9">
         <v>2.2999999999999998</v>
@@ -7535,9 +6877,9 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="9">
         <v>1.1000000000000001</v>
@@ -7576,9 +6918,9 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" s="9">
         <v>1.8</v>
@@ -7617,9 +6959,9 @@
         <v>-0.56000000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="5">
         <v>2.1</v>
@@ -7658,9 +7000,9 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="9">
         <v>1.7</v>
@@ -7699,9 +7041,9 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" s="9">
         <v>2.9</v>
@@ -7740,9 +7082,9 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="9">
         <v>2.4</v>
@@ -7781,9 +7123,9 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="9">
         <v>2.2999999999999998</v>
@@ -7822,9 +7164,9 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" s="9">
         <v>1.5</v>
@@ -7863,9 +7205,9 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" s="9">
         <v>2.9</v>
@@ -7904,9 +7246,9 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B41" s="9">
         <v>1.9</v>
@@ -7945,9 +7287,9 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" s="9">
         <v>2</v>
@@ -7986,9 +7328,9 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="9">
         <v>2</v>
@@ -8027,9 +7369,9 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="9">
         <v>2.4</v>
@@ -8068,9 +7410,9 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="9">
         <v>1.6</v>
@@ -8109,9 +7451,9 @@
         <v>-0.23</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" s="9">
         <v>0.5</v>
@@ -8150,9 +7492,9 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" s="5">
         <v>3.5</v>
@@ -8191,9 +7533,9 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B48" s="9">
         <v>2.4</v>
@@ -8232,9 +7574,9 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" s="9">
         <v>2.6</v>
@@ -8273,9 +7615,9 @@
         <v>-0.23</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="9">
         <v>1.9</v>
@@ -8314,9 +7656,9 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="9">
         <v>4</v>
@@ -8355,9 +7697,9 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B52" s="5">
         <v>2.7</v>
@@ -8396,9 +7738,9 @@
         <v>-0.22</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="9">
         <v>2.6</v>
@@ -8437,9 +7779,9 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54" s="9">
         <v>2.5</v>
@@ -8478,9 +7820,9 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B55" s="9">
         <v>2.2999999999999998</v>
@@ -8519,9 +7861,9 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B56" s="9">
         <v>3.2</v>
@@ -8560,9 +7902,9 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" s="9">
         <v>1.3</v>
@@ -8601,9 +7943,9 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B58" s="5">
         <v>2.2000000000000002</v>
@@ -8642,9 +7984,9 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B59" s="9">
         <v>2.4</v>
@@ -8683,9 +8025,9 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" s="9">
         <v>2.1</v>
@@ -8724,9 +8066,9 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B61" s="9">
         <v>0.4</v>
@@ -8765,9 +8107,9 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B62" s="9">
         <v>2.2999999999999998</v>
@@ -8806,9 +8148,9 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B63" s="9">
         <v>1.8</v>
@@ -8847,9 +8189,9 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" s="9">
         <v>3.1</v>
@@ -8888,22 +8230,22 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="37" t="s">
+    <row r="65" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8939,107 +8281,107 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -9052,7 +8394,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
@@ -9067,15 +8409,15 @@
         <v>17</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="13">
         <v>0.11</v>
@@ -9108,9 +8450,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="13">
         <v>0.09</v>
@@ -9143,9 +8485,9 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="15">
         <v>0.03</v>
@@ -9178,9 +8520,9 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="15">
         <v>7.0000000000000007E-2</v>
@@ -9213,9 +8555,9 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="15">
         <v>0.13</v>
@@ -9248,9 +8590,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="15">
         <v>0.08</v>
@@ -9283,9 +8625,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="15">
         <v>0.05</v>
@@ -9318,9 +8660,9 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="15">
         <v>7.0000000000000007E-2</v>
@@ -9353,9 +8695,9 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="13">
         <v>0.09</v>
@@ -9388,9 +8730,9 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="15">
         <v>0.1</v>
@@ -9423,9 +8765,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="15">
         <v>0.04</v>
@@ -9458,9 +8800,9 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="15">
         <v>0.1</v>
@@ -9493,9 +8835,9 @@
         <v>-0.22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="15">
         <v>0.08</v>
@@ -9528,9 +8870,9 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="15">
         <v>0.11</v>
@@ -9563,9 +8905,9 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="15">
         <v>0.06</v>
@@ -9598,9 +8940,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="13">
         <v>0.08</v>
@@ -9633,9 +8975,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="15">
         <v>0.06</v>
@@ -9668,9 +9010,9 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="15">
         <v>7.0000000000000007E-2</v>
@@ -9703,9 +9045,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="15">
         <v>0.13</v>
@@ -9738,9 +9080,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="15">
         <v>7.0000000000000007E-2</v>
@@ -9773,9 +9115,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="15">
         <v>7.0000000000000007E-2</v>
@@ -9808,9 +9150,9 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="13">
         <v>7.0000000000000007E-2</v>
@@ -9843,9 +9185,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="15">
         <v>0.06</v>
@@ -9878,9 +9220,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="15">
         <v>0.04</v>
@@ -9913,9 +9255,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="15">
         <v>7.0000000000000007E-2</v>
@@ -9948,9 +9290,9 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="15">
         <v>0.08</v>
@@ -9983,9 +9325,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="15">
         <v>0.08</v>
@@ -10018,9 +9360,9 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="15">
         <v>7.0000000000000007E-2</v>
@@ -10053,9 +9395,9 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" s="15">
         <v>0.05</v>
@@ -10088,9 +9430,9 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="13">
         <v>0.1</v>
@@ -10123,9 +9465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="15">
         <v>0.04</v>
@@ -10158,9 +9500,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" s="15">
         <v>0.06</v>
@@ -10193,9 +9535,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="15">
         <v>0.16</v>
@@ -10228,9 +9570,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="15">
         <v>0.1</v>
@@ -10263,9 +9605,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" s="15">
         <v>0.06</v>
@@ -10298,9 +9640,9 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" s="15">
         <v>0.06</v>
@@ -10333,9 +9675,9 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B41" s="15">
         <v>0.06</v>
@@ -10368,9 +9710,9 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" s="15">
         <v>0.09</v>
@@ -10403,9 +9745,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="15">
         <v>0.1</v>
@@ -10438,9 +9780,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="15">
         <v>0.09</v>
@@ -10473,9 +9815,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="15">
         <v>0.12</v>
@@ -10508,9 +9850,9 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" s="15">
         <v>0.04</v>
@@ -10543,9 +9885,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" s="13">
         <v>0.08</v>
@@ -10578,9 +9920,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B48" s="15">
         <v>0.2</v>
@@ -10613,9 +9955,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" s="15">
         <v>7.0000000000000007E-2</v>
@@ -10648,9 +9990,9 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="15">
         <v>0.06</v>
@@ -10683,9 +10025,9 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="15">
         <v>0.06</v>
@@ -10718,9 +10060,9 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B52" s="13">
         <v>0.16</v>
@@ -10753,9 +10095,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="15">
         <v>0.19</v>
@@ -10788,9 +10130,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54" s="15">
         <v>0.15</v>
@@ -10823,9 +10165,9 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B55" s="15">
         <v>0.11</v>
@@ -10858,9 +10200,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B56" s="15">
         <v>0.15</v>
@@ -10893,9 +10235,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" s="15">
         <v>0.06</v>
@@ -10928,9 +10270,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B58" s="13">
         <v>0.19</v>
@@ -10963,9 +10305,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B59" s="15">
         <v>0.03</v>
@@ -10998,9 +10340,9 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" s="15">
         <v>0.19</v>
@@ -11033,9 +10375,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B61" s="15">
         <v>0.18</v>
@@ -11068,9 +10410,9 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B62" s="15">
         <v>0.21</v>
@@ -11103,9 +10445,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B63" s="15">
         <v>0.17</v>
@@ -11138,9 +10480,9 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" s="15">
         <v>0.2</v>
@@ -11173,20 +10515,20 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="37" t="s">
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11215,3352 +10557,1163 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="19" customWidth="1"/>
-    <col min="2" max="8" width="10.7109375" style="19" customWidth="1"/>
-    <col min="9" max="15" width="8.7109375" style="19" customWidth="1"/>
-    <col min="16" max="229" width="9.140625" style="19"/>
-    <col min="230" max="230" width="22.7109375" style="19" customWidth="1"/>
-    <col min="231" max="237" width="11.140625" style="19" customWidth="1"/>
-    <col min="238" max="240" width="12.140625" style="19" customWidth="1"/>
-    <col min="241" max="485" width="9.140625" style="19"/>
-    <col min="486" max="486" width="22.7109375" style="19" customWidth="1"/>
-    <col min="487" max="493" width="11.140625" style="19" customWidth="1"/>
-    <col min="494" max="496" width="12.140625" style="19" customWidth="1"/>
-    <col min="497" max="741" width="9.140625" style="19"/>
-    <col min="742" max="742" width="22.7109375" style="19" customWidth="1"/>
-    <col min="743" max="749" width="11.140625" style="19" customWidth="1"/>
-    <col min="750" max="752" width="12.140625" style="19" customWidth="1"/>
-    <col min="753" max="997" width="9.140625" style="19"/>
-    <col min="998" max="998" width="22.7109375" style="19" customWidth="1"/>
-    <col min="999" max="1005" width="11.140625" style="19" customWidth="1"/>
-    <col min="1006" max="1008" width="12.140625" style="19" customWidth="1"/>
-    <col min="1009" max="1253" width="9.140625" style="19"/>
-    <col min="1254" max="1254" width="22.7109375" style="19" customWidth="1"/>
-    <col min="1255" max="1261" width="11.140625" style="19" customWidth="1"/>
-    <col min="1262" max="1264" width="12.140625" style="19" customWidth="1"/>
-    <col min="1265" max="1509" width="9.140625" style="19"/>
-    <col min="1510" max="1510" width="22.7109375" style="19" customWidth="1"/>
-    <col min="1511" max="1517" width="11.140625" style="19" customWidth="1"/>
-    <col min="1518" max="1520" width="12.140625" style="19" customWidth="1"/>
-    <col min="1521" max="1765" width="9.140625" style="19"/>
-    <col min="1766" max="1766" width="22.7109375" style="19" customWidth="1"/>
-    <col min="1767" max="1773" width="11.140625" style="19" customWidth="1"/>
-    <col min="1774" max="1776" width="12.140625" style="19" customWidth="1"/>
-    <col min="1777" max="2021" width="9.140625" style="19"/>
-    <col min="2022" max="2022" width="22.7109375" style="19" customWidth="1"/>
-    <col min="2023" max="2029" width="11.140625" style="19" customWidth="1"/>
-    <col min="2030" max="2032" width="12.140625" style="19" customWidth="1"/>
-    <col min="2033" max="2277" width="9.140625" style="19"/>
-    <col min="2278" max="2278" width="22.7109375" style="19" customWidth="1"/>
-    <col min="2279" max="2285" width="11.140625" style="19" customWidth="1"/>
-    <col min="2286" max="2288" width="12.140625" style="19" customWidth="1"/>
-    <col min="2289" max="2533" width="9.140625" style="19"/>
-    <col min="2534" max="2534" width="22.7109375" style="19" customWidth="1"/>
-    <col min="2535" max="2541" width="11.140625" style="19" customWidth="1"/>
-    <col min="2542" max="2544" width="12.140625" style="19" customWidth="1"/>
-    <col min="2545" max="2789" width="9.140625" style="19"/>
-    <col min="2790" max="2790" width="22.7109375" style="19" customWidth="1"/>
-    <col min="2791" max="2797" width="11.140625" style="19" customWidth="1"/>
-    <col min="2798" max="2800" width="12.140625" style="19" customWidth="1"/>
-    <col min="2801" max="3045" width="9.140625" style="19"/>
-    <col min="3046" max="3046" width="22.7109375" style="19" customWidth="1"/>
-    <col min="3047" max="3053" width="11.140625" style="19" customWidth="1"/>
-    <col min="3054" max="3056" width="12.140625" style="19" customWidth="1"/>
-    <col min="3057" max="3301" width="9.140625" style="19"/>
-    <col min="3302" max="3302" width="22.7109375" style="19" customWidth="1"/>
-    <col min="3303" max="3309" width="11.140625" style="19" customWidth="1"/>
-    <col min="3310" max="3312" width="12.140625" style="19" customWidth="1"/>
-    <col min="3313" max="3557" width="9.140625" style="19"/>
-    <col min="3558" max="3558" width="22.7109375" style="19" customWidth="1"/>
-    <col min="3559" max="3565" width="11.140625" style="19" customWidth="1"/>
-    <col min="3566" max="3568" width="12.140625" style="19" customWidth="1"/>
-    <col min="3569" max="3813" width="9.140625" style="19"/>
-    <col min="3814" max="3814" width="22.7109375" style="19" customWidth="1"/>
-    <col min="3815" max="3821" width="11.140625" style="19" customWidth="1"/>
-    <col min="3822" max="3824" width="12.140625" style="19" customWidth="1"/>
-    <col min="3825" max="4069" width="9.140625" style="19"/>
-    <col min="4070" max="4070" width="22.7109375" style="19" customWidth="1"/>
-    <col min="4071" max="4077" width="11.140625" style="19" customWidth="1"/>
-    <col min="4078" max="4080" width="12.140625" style="19" customWidth="1"/>
-    <col min="4081" max="4325" width="9.140625" style="19"/>
-    <col min="4326" max="4326" width="22.7109375" style="19" customWidth="1"/>
-    <col min="4327" max="4333" width="11.140625" style="19" customWidth="1"/>
-    <col min="4334" max="4336" width="12.140625" style="19" customWidth="1"/>
-    <col min="4337" max="4581" width="9.140625" style="19"/>
-    <col min="4582" max="4582" width="22.7109375" style="19" customWidth="1"/>
-    <col min="4583" max="4589" width="11.140625" style="19" customWidth="1"/>
-    <col min="4590" max="4592" width="12.140625" style="19" customWidth="1"/>
-    <col min="4593" max="4837" width="9.140625" style="19"/>
-    <col min="4838" max="4838" width="22.7109375" style="19" customWidth="1"/>
-    <col min="4839" max="4845" width="11.140625" style="19" customWidth="1"/>
-    <col min="4846" max="4848" width="12.140625" style="19" customWidth="1"/>
-    <col min="4849" max="5093" width="9.140625" style="19"/>
-    <col min="5094" max="5094" width="22.7109375" style="19" customWidth="1"/>
-    <col min="5095" max="5101" width="11.140625" style="19" customWidth="1"/>
-    <col min="5102" max="5104" width="12.140625" style="19" customWidth="1"/>
-    <col min="5105" max="5349" width="9.140625" style="19"/>
-    <col min="5350" max="5350" width="22.7109375" style="19" customWidth="1"/>
-    <col min="5351" max="5357" width="11.140625" style="19" customWidth="1"/>
-    <col min="5358" max="5360" width="12.140625" style="19" customWidth="1"/>
-    <col min="5361" max="5605" width="9.140625" style="19"/>
-    <col min="5606" max="5606" width="22.7109375" style="19" customWidth="1"/>
-    <col min="5607" max="5613" width="11.140625" style="19" customWidth="1"/>
-    <col min="5614" max="5616" width="12.140625" style="19" customWidth="1"/>
-    <col min="5617" max="5861" width="9.140625" style="19"/>
-    <col min="5862" max="5862" width="22.7109375" style="19" customWidth="1"/>
-    <col min="5863" max="5869" width="11.140625" style="19" customWidth="1"/>
-    <col min="5870" max="5872" width="12.140625" style="19" customWidth="1"/>
-    <col min="5873" max="6117" width="9.140625" style="19"/>
-    <col min="6118" max="6118" width="22.7109375" style="19" customWidth="1"/>
-    <col min="6119" max="6125" width="11.140625" style="19" customWidth="1"/>
-    <col min="6126" max="6128" width="12.140625" style="19" customWidth="1"/>
-    <col min="6129" max="6373" width="9.140625" style="19"/>
-    <col min="6374" max="6374" width="22.7109375" style="19" customWidth="1"/>
-    <col min="6375" max="6381" width="11.140625" style="19" customWidth="1"/>
-    <col min="6382" max="6384" width="12.140625" style="19" customWidth="1"/>
-    <col min="6385" max="6629" width="9.140625" style="19"/>
-    <col min="6630" max="6630" width="22.7109375" style="19" customWidth="1"/>
-    <col min="6631" max="6637" width="11.140625" style="19" customWidth="1"/>
-    <col min="6638" max="6640" width="12.140625" style="19" customWidth="1"/>
-    <col min="6641" max="6885" width="9.140625" style="19"/>
-    <col min="6886" max="6886" width="22.7109375" style="19" customWidth="1"/>
-    <col min="6887" max="6893" width="11.140625" style="19" customWidth="1"/>
-    <col min="6894" max="6896" width="12.140625" style="19" customWidth="1"/>
-    <col min="6897" max="7141" width="9.140625" style="19"/>
-    <col min="7142" max="7142" width="22.7109375" style="19" customWidth="1"/>
-    <col min="7143" max="7149" width="11.140625" style="19" customWidth="1"/>
-    <col min="7150" max="7152" width="12.140625" style="19" customWidth="1"/>
-    <col min="7153" max="7397" width="9.140625" style="19"/>
-    <col min="7398" max="7398" width="22.7109375" style="19" customWidth="1"/>
-    <col min="7399" max="7405" width="11.140625" style="19" customWidth="1"/>
-    <col min="7406" max="7408" width="12.140625" style="19" customWidth="1"/>
-    <col min="7409" max="7653" width="9.140625" style="19"/>
-    <col min="7654" max="7654" width="22.7109375" style="19" customWidth="1"/>
-    <col min="7655" max="7661" width="11.140625" style="19" customWidth="1"/>
-    <col min="7662" max="7664" width="12.140625" style="19" customWidth="1"/>
-    <col min="7665" max="7909" width="9.140625" style="19"/>
-    <col min="7910" max="7910" width="22.7109375" style="19" customWidth="1"/>
-    <col min="7911" max="7917" width="11.140625" style="19" customWidth="1"/>
-    <col min="7918" max="7920" width="12.140625" style="19" customWidth="1"/>
-    <col min="7921" max="8165" width="9.140625" style="19"/>
-    <col min="8166" max="8166" width="22.7109375" style="19" customWidth="1"/>
-    <col min="8167" max="8173" width="11.140625" style="19" customWidth="1"/>
-    <col min="8174" max="8176" width="12.140625" style="19" customWidth="1"/>
-    <col min="8177" max="8421" width="9.140625" style="19"/>
-    <col min="8422" max="8422" width="22.7109375" style="19" customWidth="1"/>
-    <col min="8423" max="8429" width="11.140625" style="19" customWidth="1"/>
-    <col min="8430" max="8432" width="12.140625" style="19" customWidth="1"/>
-    <col min="8433" max="8677" width="9.140625" style="19"/>
-    <col min="8678" max="8678" width="22.7109375" style="19" customWidth="1"/>
-    <col min="8679" max="8685" width="11.140625" style="19" customWidth="1"/>
-    <col min="8686" max="8688" width="12.140625" style="19" customWidth="1"/>
-    <col min="8689" max="8933" width="9.140625" style="19"/>
-    <col min="8934" max="8934" width="22.7109375" style="19" customWidth="1"/>
-    <col min="8935" max="8941" width="11.140625" style="19" customWidth="1"/>
-    <col min="8942" max="8944" width="12.140625" style="19" customWidth="1"/>
-    <col min="8945" max="9189" width="9.140625" style="19"/>
-    <col min="9190" max="9190" width="22.7109375" style="19" customWidth="1"/>
-    <col min="9191" max="9197" width="11.140625" style="19" customWidth="1"/>
-    <col min="9198" max="9200" width="12.140625" style="19" customWidth="1"/>
-    <col min="9201" max="9445" width="9.140625" style="19"/>
-    <col min="9446" max="9446" width="22.7109375" style="19" customWidth="1"/>
-    <col min="9447" max="9453" width="11.140625" style="19" customWidth="1"/>
-    <col min="9454" max="9456" width="12.140625" style="19" customWidth="1"/>
-    <col min="9457" max="9701" width="9.140625" style="19"/>
-    <col min="9702" max="9702" width="22.7109375" style="19" customWidth="1"/>
-    <col min="9703" max="9709" width="11.140625" style="19" customWidth="1"/>
-    <col min="9710" max="9712" width="12.140625" style="19" customWidth="1"/>
-    <col min="9713" max="9957" width="9.140625" style="19"/>
-    <col min="9958" max="9958" width="22.7109375" style="19" customWidth="1"/>
-    <col min="9959" max="9965" width="11.140625" style="19" customWidth="1"/>
-    <col min="9966" max="9968" width="12.140625" style="19" customWidth="1"/>
-    <col min="9969" max="10213" width="9.140625" style="19"/>
-    <col min="10214" max="10214" width="22.7109375" style="19" customWidth="1"/>
-    <col min="10215" max="10221" width="11.140625" style="19" customWidth="1"/>
-    <col min="10222" max="10224" width="12.140625" style="19" customWidth="1"/>
-    <col min="10225" max="10469" width="9.140625" style="19"/>
-    <col min="10470" max="10470" width="22.7109375" style="19" customWidth="1"/>
-    <col min="10471" max="10477" width="11.140625" style="19" customWidth="1"/>
-    <col min="10478" max="10480" width="12.140625" style="19" customWidth="1"/>
-    <col min="10481" max="10725" width="9.140625" style="19"/>
-    <col min="10726" max="10726" width="22.7109375" style="19" customWidth="1"/>
-    <col min="10727" max="10733" width="11.140625" style="19" customWidth="1"/>
-    <col min="10734" max="10736" width="12.140625" style="19" customWidth="1"/>
-    <col min="10737" max="10981" width="9.140625" style="19"/>
-    <col min="10982" max="10982" width="22.7109375" style="19" customWidth="1"/>
-    <col min="10983" max="10989" width="11.140625" style="19" customWidth="1"/>
-    <col min="10990" max="10992" width="12.140625" style="19" customWidth="1"/>
-    <col min="10993" max="11237" width="9.140625" style="19"/>
-    <col min="11238" max="11238" width="22.7109375" style="19" customWidth="1"/>
-    <col min="11239" max="11245" width="11.140625" style="19" customWidth="1"/>
-    <col min="11246" max="11248" width="12.140625" style="19" customWidth="1"/>
-    <col min="11249" max="11493" width="9.140625" style="19"/>
-    <col min="11494" max="11494" width="22.7109375" style="19" customWidth="1"/>
-    <col min="11495" max="11501" width="11.140625" style="19" customWidth="1"/>
-    <col min="11502" max="11504" width="12.140625" style="19" customWidth="1"/>
-    <col min="11505" max="11749" width="9.140625" style="19"/>
-    <col min="11750" max="11750" width="22.7109375" style="19" customWidth="1"/>
-    <col min="11751" max="11757" width="11.140625" style="19" customWidth="1"/>
-    <col min="11758" max="11760" width="12.140625" style="19" customWidth="1"/>
-    <col min="11761" max="12005" width="9.140625" style="19"/>
-    <col min="12006" max="12006" width="22.7109375" style="19" customWidth="1"/>
-    <col min="12007" max="12013" width="11.140625" style="19" customWidth="1"/>
-    <col min="12014" max="12016" width="12.140625" style="19" customWidth="1"/>
-    <col min="12017" max="12261" width="9.140625" style="19"/>
-    <col min="12262" max="12262" width="22.7109375" style="19" customWidth="1"/>
-    <col min="12263" max="12269" width="11.140625" style="19" customWidth="1"/>
-    <col min="12270" max="12272" width="12.140625" style="19" customWidth="1"/>
-    <col min="12273" max="12517" width="9.140625" style="19"/>
-    <col min="12518" max="12518" width="22.7109375" style="19" customWidth="1"/>
-    <col min="12519" max="12525" width="11.140625" style="19" customWidth="1"/>
-    <col min="12526" max="12528" width="12.140625" style="19" customWidth="1"/>
-    <col min="12529" max="12773" width="9.140625" style="19"/>
-    <col min="12774" max="12774" width="22.7109375" style="19" customWidth="1"/>
-    <col min="12775" max="12781" width="11.140625" style="19" customWidth="1"/>
-    <col min="12782" max="12784" width="12.140625" style="19" customWidth="1"/>
-    <col min="12785" max="13029" width="9.140625" style="19"/>
-    <col min="13030" max="13030" width="22.7109375" style="19" customWidth="1"/>
-    <col min="13031" max="13037" width="11.140625" style="19" customWidth="1"/>
-    <col min="13038" max="13040" width="12.140625" style="19" customWidth="1"/>
-    <col min="13041" max="13285" width="9.140625" style="19"/>
-    <col min="13286" max="13286" width="22.7109375" style="19" customWidth="1"/>
-    <col min="13287" max="13293" width="11.140625" style="19" customWidth="1"/>
-    <col min="13294" max="13296" width="12.140625" style="19" customWidth="1"/>
-    <col min="13297" max="13541" width="9.140625" style="19"/>
-    <col min="13542" max="13542" width="22.7109375" style="19" customWidth="1"/>
-    <col min="13543" max="13549" width="11.140625" style="19" customWidth="1"/>
-    <col min="13550" max="13552" width="12.140625" style="19" customWidth="1"/>
-    <col min="13553" max="13797" width="9.140625" style="19"/>
-    <col min="13798" max="13798" width="22.7109375" style="19" customWidth="1"/>
-    <col min="13799" max="13805" width="11.140625" style="19" customWidth="1"/>
-    <col min="13806" max="13808" width="12.140625" style="19" customWidth="1"/>
-    <col min="13809" max="14053" width="9.140625" style="19"/>
-    <col min="14054" max="14054" width="22.7109375" style="19" customWidth="1"/>
-    <col min="14055" max="14061" width="11.140625" style="19" customWidth="1"/>
-    <col min="14062" max="14064" width="12.140625" style="19" customWidth="1"/>
-    <col min="14065" max="14309" width="9.140625" style="19"/>
-    <col min="14310" max="14310" width="22.7109375" style="19" customWidth="1"/>
-    <col min="14311" max="14317" width="11.140625" style="19" customWidth="1"/>
-    <col min="14318" max="14320" width="12.140625" style="19" customWidth="1"/>
-    <col min="14321" max="14565" width="9.140625" style="19"/>
-    <col min="14566" max="14566" width="22.7109375" style="19" customWidth="1"/>
-    <col min="14567" max="14573" width="11.140625" style="19" customWidth="1"/>
-    <col min="14574" max="14576" width="12.140625" style="19" customWidth="1"/>
-    <col min="14577" max="14821" width="9.140625" style="19"/>
-    <col min="14822" max="14822" width="22.7109375" style="19" customWidth="1"/>
-    <col min="14823" max="14829" width="11.140625" style="19" customWidth="1"/>
-    <col min="14830" max="14832" width="12.140625" style="19" customWidth="1"/>
-    <col min="14833" max="15077" width="9.140625" style="19"/>
-    <col min="15078" max="15078" width="22.7109375" style="19" customWidth="1"/>
-    <col min="15079" max="15085" width="11.140625" style="19" customWidth="1"/>
-    <col min="15086" max="15088" width="12.140625" style="19" customWidth="1"/>
-    <col min="15089" max="15333" width="9.140625" style="19"/>
-    <col min="15334" max="15334" width="22.7109375" style="19" customWidth="1"/>
-    <col min="15335" max="15341" width="11.140625" style="19" customWidth="1"/>
-    <col min="15342" max="15344" width="12.140625" style="19" customWidth="1"/>
-    <col min="15345" max="15589" width="9.140625" style="19"/>
-    <col min="15590" max="15590" width="22.7109375" style="19" customWidth="1"/>
-    <col min="15591" max="15597" width="11.140625" style="19" customWidth="1"/>
-    <col min="15598" max="15600" width="12.140625" style="19" customWidth="1"/>
-    <col min="15601" max="15845" width="9.140625" style="19"/>
-    <col min="15846" max="15846" width="22.7109375" style="19" customWidth="1"/>
-    <col min="15847" max="15853" width="11.140625" style="19" customWidth="1"/>
-    <col min="15854" max="15856" width="12.140625" style="19" customWidth="1"/>
-    <col min="15857" max="16101" width="9.140625" style="19"/>
-    <col min="16102" max="16102" width="22.7109375" style="19" customWidth="1"/>
-    <col min="16103" max="16109" width="11.140625" style="19" customWidth="1"/>
-    <col min="16110" max="16112" width="12.140625" style="19" customWidth="1"/>
-    <col min="16113" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="22.6640625" style="19" customWidth="1"/>
+    <col min="2" max="5" width="10.6640625" style="19" customWidth="1"/>
+    <col min="6" max="219" width="9.1640625" style="19"/>
+    <col min="220" max="220" width="22.6640625" style="19" customWidth="1"/>
+    <col min="221" max="227" width="11.1640625" style="19" customWidth="1"/>
+    <col min="228" max="230" width="12.1640625" style="19" customWidth="1"/>
+    <col min="231" max="475" width="9.1640625" style="19"/>
+    <col min="476" max="476" width="22.6640625" style="19" customWidth="1"/>
+    <col min="477" max="483" width="11.1640625" style="19" customWidth="1"/>
+    <col min="484" max="486" width="12.1640625" style="19" customWidth="1"/>
+    <col min="487" max="731" width="9.1640625" style="19"/>
+    <col min="732" max="732" width="22.6640625" style="19" customWidth="1"/>
+    <col min="733" max="739" width="11.1640625" style="19" customWidth="1"/>
+    <col min="740" max="742" width="12.1640625" style="19" customWidth="1"/>
+    <col min="743" max="987" width="9.1640625" style="19"/>
+    <col min="988" max="988" width="22.6640625" style="19" customWidth="1"/>
+    <col min="989" max="995" width="11.1640625" style="19" customWidth="1"/>
+    <col min="996" max="998" width="12.1640625" style="19" customWidth="1"/>
+    <col min="999" max="1243" width="9.1640625" style="19"/>
+    <col min="1244" max="1244" width="22.6640625" style="19" customWidth="1"/>
+    <col min="1245" max="1251" width="11.1640625" style="19" customWidth="1"/>
+    <col min="1252" max="1254" width="12.1640625" style="19" customWidth="1"/>
+    <col min="1255" max="1499" width="9.1640625" style="19"/>
+    <col min="1500" max="1500" width="22.6640625" style="19" customWidth="1"/>
+    <col min="1501" max="1507" width="11.1640625" style="19" customWidth="1"/>
+    <col min="1508" max="1510" width="12.1640625" style="19" customWidth="1"/>
+    <col min="1511" max="1755" width="9.1640625" style="19"/>
+    <col min="1756" max="1756" width="22.6640625" style="19" customWidth="1"/>
+    <col min="1757" max="1763" width="11.1640625" style="19" customWidth="1"/>
+    <col min="1764" max="1766" width="12.1640625" style="19" customWidth="1"/>
+    <col min="1767" max="2011" width="9.1640625" style="19"/>
+    <col min="2012" max="2012" width="22.6640625" style="19" customWidth="1"/>
+    <col min="2013" max="2019" width="11.1640625" style="19" customWidth="1"/>
+    <col min="2020" max="2022" width="12.1640625" style="19" customWidth="1"/>
+    <col min="2023" max="2267" width="9.1640625" style="19"/>
+    <col min="2268" max="2268" width="22.6640625" style="19" customWidth="1"/>
+    <col min="2269" max="2275" width="11.1640625" style="19" customWidth="1"/>
+    <col min="2276" max="2278" width="12.1640625" style="19" customWidth="1"/>
+    <col min="2279" max="2523" width="9.1640625" style="19"/>
+    <col min="2524" max="2524" width="22.6640625" style="19" customWidth="1"/>
+    <col min="2525" max="2531" width="11.1640625" style="19" customWidth="1"/>
+    <col min="2532" max="2534" width="12.1640625" style="19" customWidth="1"/>
+    <col min="2535" max="2779" width="9.1640625" style="19"/>
+    <col min="2780" max="2780" width="22.6640625" style="19" customWidth="1"/>
+    <col min="2781" max="2787" width="11.1640625" style="19" customWidth="1"/>
+    <col min="2788" max="2790" width="12.1640625" style="19" customWidth="1"/>
+    <col min="2791" max="3035" width="9.1640625" style="19"/>
+    <col min="3036" max="3036" width="22.6640625" style="19" customWidth="1"/>
+    <col min="3037" max="3043" width="11.1640625" style="19" customWidth="1"/>
+    <col min="3044" max="3046" width="12.1640625" style="19" customWidth="1"/>
+    <col min="3047" max="3291" width="9.1640625" style="19"/>
+    <col min="3292" max="3292" width="22.6640625" style="19" customWidth="1"/>
+    <col min="3293" max="3299" width="11.1640625" style="19" customWidth="1"/>
+    <col min="3300" max="3302" width="12.1640625" style="19" customWidth="1"/>
+    <col min="3303" max="3547" width="9.1640625" style="19"/>
+    <col min="3548" max="3548" width="22.6640625" style="19" customWidth="1"/>
+    <col min="3549" max="3555" width="11.1640625" style="19" customWidth="1"/>
+    <col min="3556" max="3558" width="12.1640625" style="19" customWidth="1"/>
+    <col min="3559" max="3803" width="9.1640625" style="19"/>
+    <col min="3804" max="3804" width="22.6640625" style="19" customWidth="1"/>
+    <col min="3805" max="3811" width="11.1640625" style="19" customWidth="1"/>
+    <col min="3812" max="3814" width="12.1640625" style="19" customWidth="1"/>
+    <col min="3815" max="4059" width="9.1640625" style="19"/>
+    <col min="4060" max="4060" width="22.6640625" style="19" customWidth="1"/>
+    <col min="4061" max="4067" width="11.1640625" style="19" customWidth="1"/>
+    <col min="4068" max="4070" width="12.1640625" style="19" customWidth="1"/>
+    <col min="4071" max="4315" width="9.1640625" style="19"/>
+    <col min="4316" max="4316" width="22.6640625" style="19" customWidth="1"/>
+    <col min="4317" max="4323" width="11.1640625" style="19" customWidth="1"/>
+    <col min="4324" max="4326" width="12.1640625" style="19" customWidth="1"/>
+    <col min="4327" max="4571" width="9.1640625" style="19"/>
+    <col min="4572" max="4572" width="22.6640625" style="19" customWidth="1"/>
+    <col min="4573" max="4579" width="11.1640625" style="19" customWidth="1"/>
+    <col min="4580" max="4582" width="12.1640625" style="19" customWidth="1"/>
+    <col min="4583" max="4827" width="9.1640625" style="19"/>
+    <col min="4828" max="4828" width="22.6640625" style="19" customWidth="1"/>
+    <col min="4829" max="4835" width="11.1640625" style="19" customWidth="1"/>
+    <col min="4836" max="4838" width="12.1640625" style="19" customWidth="1"/>
+    <col min="4839" max="5083" width="9.1640625" style="19"/>
+    <col min="5084" max="5084" width="22.6640625" style="19" customWidth="1"/>
+    <col min="5085" max="5091" width="11.1640625" style="19" customWidth="1"/>
+    <col min="5092" max="5094" width="12.1640625" style="19" customWidth="1"/>
+    <col min="5095" max="5339" width="9.1640625" style="19"/>
+    <col min="5340" max="5340" width="22.6640625" style="19" customWidth="1"/>
+    <col min="5341" max="5347" width="11.1640625" style="19" customWidth="1"/>
+    <col min="5348" max="5350" width="12.1640625" style="19" customWidth="1"/>
+    <col min="5351" max="5595" width="9.1640625" style="19"/>
+    <col min="5596" max="5596" width="22.6640625" style="19" customWidth="1"/>
+    <col min="5597" max="5603" width="11.1640625" style="19" customWidth="1"/>
+    <col min="5604" max="5606" width="12.1640625" style="19" customWidth="1"/>
+    <col min="5607" max="5851" width="9.1640625" style="19"/>
+    <col min="5852" max="5852" width="22.6640625" style="19" customWidth="1"/>
+    <col min="5853" max="5859" width="11.1640625" style="19" customWidth="1"/>
+    <col min="5860" max="5862" width="12.1640625" style="19" customWidth="1"/>
+    <col min="5863" max="6107" width="9.1640625" style="19"/>
+    <col min="6108" max="6108" width="22.6640625" style="19" customWidth="1"/>
+    <col min="6109" max="6115" width="11.1640625" style="19" customWidth="1"/>
+    <col min="6116" max="6118" width="12.1640625" style="19" customWidth="1"/>
+    <col min="6119" max="6363" width="9.1640625" style="19"/>
+    <col min="6364" max="6364" width="22.6640625" style="19" customWidth="1"/>
+    <col min="6365" max="6371" width="11.1640625" style="19" customWidth="1"/>
+    <col min="6372" max="6374" width="12.1640625" style="19" customWidth="1"/>
+    <col min="6375" max="6619" width="9.1640625" style="19"/>
+    <col min="6620" max="6620" width="22.6640625" style="19" customWidth="1"/>
+    <col min="6621" max="6627" width="11.1640625" style="19" customWidth="1"/>
+    <col min="6628" max="6630" width="12.1640625" style="19" customWidth="1"/>
+    <col min="6631" max="6875" width="9.1640625" style="19"/>
+    <col min="6876" max="6876" width="22.6640625" style="19" customWidth="1"/>
+    <col min="6877" max="6883" width="11.1640625" style="19" customWidth="1"/>
+    <col min="6884" max="6886" width="12.1640625" style="19" customWidth="1"/>
+    <col min="6887" max="7131" width="9.1640625" style="19"/>
+    <col min="7132" max="7132" width="22.6640625" style="19" customWidth="1"/>
+    <col min="7133" max="7139" width="11.1640625" style="19" customWidth="1"/>
+    <col min="7140" max="7142" width="12.1640625" style="19" customWidth="1"/>
+    <col min="7143" max="7387" width="9.1640625" style="19"/>
+    <col min="7388" max="7388" width="22.6640625" style="19" customWidth="1"/>
+    <col min="7389" max="7395" width="11.1640625" style="19" customWidth="1"/>
+    <col min="7396" max="7398" width="12.1640625" style="19" customWidth="1"/>
+    <col min="7399" max="7643" width="9.1640625" style="19"/>
+    <col min="7644" max="7644" width="22.6640625" style="19" customWidth="1"/>
+    <col min="7645" max="7651" width="11.1640625" style="19" customWidth="1"/>
+    <col min="7652" max="7654" width="12.1640625" style="19" customWidth="1"/>
+    <col min="7655" max="7899" width="9.1640625" style="19"/>
+    <col min="7900" max="7900" width="22.6640625" style="19" customWidth="1"/>
+    <col min="7901" max="7907" width="11.1640625" style="19" customWidth="1"/>
+    <col min="7908" max="7910" width="12.1640625" style="19" customWidth="1"/>
+    <col min="7911" max="8155" width="9.1640625" style="19"/>
+    <col min="8156" max="8156" width="22.6640625" style="19" customWidth="1"/>
+    <col min="8157" max="8163" width="11.1640625" style="19" customWidth="1"/>
+    <col min="8164" max="8166" width="12.1640625" style="19" customWidth="1"/>
+    <col min="8167" max="8411" width="9.1640625" style="19"/>
+    <col min="8412" max="8412" width="22.6640625" style="19" customWidth="1"/>
+    <col min="8413" max="8419" width="11.1640625" style="19" customWidth="1"/>
+    <col min="8420" max="8422" width="12.1640625" style="19" customWidth="1"/>
+    <col min="8423" max="8667" width="9.1640625" style="19"/>
+    <col min="8668" max="8668" width="22.6640625" style="19" customWidth="1"/>
+    <col min="8669" max="8675" width="11.1640625" style="19" customWidth="1"/>
+    <col min="8676" max="8678" width="12.1640625" style="19" customWidth="1"/>
+    <col min="8679" max="8923" width="9.1640625" style="19"/>
+    <col min="8924" max="8924" width="22.6640625" style="19" customWidth="1"/>
+    <col min="8925" max="8931" width="11.1640625" style="19" customWidth="1"/>
+    <col min="8932" max="8934" width="12.1640625" style="19" customWidth="1"/>
+    <col min="8935" max="9179" width="9.1640625" style="19"/>
+    <col min="9180" max="9180" width="22.6640625" style="19" customWidth="1"/>
+    <col min="9181" max="9187" width="11.1640625" style="19" customWidth="1"/>
+    <col min="9188" max="9190" width="12.1640625" style="19" customWidth="1"/>
+    <col min="9191" max="9435" width="9.1640625" style="19"/>
+    <col min="9436" max="9436" width="22.6640625" style="19" customWidth="1"/>
+    <col min="9437" max="9443" width="11.1640625" style="19" customWidth="1"/>
+    <col min="9444" max="9446" width="12.1640625" style="19" customWidth="1"/>
+    <col min="9447" max="9691" width="9.1640625" style="19"/>
+    <col min="9692" max="9692" width="22.6640625" style="19" customWidth="1"/>
+    <col min="9693" max="9699" width="11.1640625" style="19" customWidth="1"/>
+    <col min="9700" max="9702" width="12.1640625" style="19" customWidth="1"/>
+    <col min="9703" max="9947" width="9.1640625" style="19"/>
+    <col min="9948" max="9948" width="22.6640625" style="19" customWidth="1"/>
+    <col min="9949" max="9955" width="11.1640625" style="19" customWidth="1"/>
+    <col min="9956" max="9958" width="12.1640625" style="19" customWidth="1"/>
+    <col min="9959" max="10203" width="9.1640625" style="19"/>
+    <col min="10204" max="10204" width="22.6640625" style="19" customWidth="1"/>
+    <col min="10205" max="10211" width="11.1640625" style="19" customWidth="1"/>
+    <col min="10212" max="10214" width="12.1640625" style="19" customWidth="1"/>
+    <col min="10215" max="10459" width="9.1640625" style="19"/>
+    <col min="10460" max="10460" width="22.6640625" style="19" customWidth="1"/>
+    <col min="10461" max="10467" width="11.1640625" style="19" customWidth="1"/>
+    <col min="10468" max="10470" width="12.1640625" style="19" customWidth="1"/>
+    <col min="10471" max="10715" width="9.1640625" style="19"/>
+    <col min="10716" max="10716" width="22.6640625" style="19" customWidth="1"/>
+    <col min="10717" max="10723" width="11.1640625" style="19" customWidth="1"/>
+    <col min="10724" max="10726" width="12.1640625" style="19" customWidth="1"/>
+    <col min="10727" max="10971" width="9.1640625" style="19"/>
+    <col min="10972" max="10972" width="22.6640625" style="19" customWidth="1"/>
+    <col min="10973" max="10979" width="11.1640625" style="19" customWidth="1"/>
+    <col min="10980" max="10982" width="12.1640625" style="19" customWidth="1"/>
+    <col min="10983" max="11227" width="9.1640625" style="19"/>
+    <col min="11228" max="11228" width="22.6640625" style="19" customWidth="1"/>
+    <col min="11229" max="11235" width="11.1640625" style="19" customWidth="1"/>
+    <col min="11236" max="11238" width="12.1640625" style="19" customWidth="1"/>
+    <col min="11239" max="11483" width="9.1640625" style="19"/>
+    <col min="11484" max="11484" width="22.6640625" style="19" customWidth="1"/>
+    <col min="11485" max="11491" width="11.1640625" style="19" customWidth="1"/>
+    <col min="11492" max="11494" width="12.1640625" style="19" customWidth="1"/>
+    <col min="11495" max="11739" width="9.1640625" style="19"/>
+    <col min="11740" max="11740" width="22.6640625" style="19" customWidth="1"/>
+    <col min="11741" max="11747" width="11.1640625" style="19" customWidth="1"/>
+    <col min="11748" max="11750" width="12.1640625" style="19" customWidth="1"/>
+    <col min="11751" max="11995" width="9.1640625" style="19"/>
+    <col min="11996" max="11996" width="22.6640625" style="19" customWidth="1"/>
+    <col min="11997" max="12003" width="11.1640625" style="19" customWidth="1"/>
+    <col min="12004" max="12006" width="12.1640625" style="19" customWidth="1"/>
+    <col min="12007" max="12251" width="9.1640625" style="19"/>
+    <col min="12252" max="12252" width="22.6640625" style="19" customWidth="1"/>
+    <col min="12253" max="12259" width="11.1640625" style="19" customWidth="1"/>
+    <col min="12260" max="12262" width="12.1640625" style="19" customWidth="1"/>
+    <col min="12263" max="12507" width="9.1640625" style="19"/>
+    <col min="12508" max="12508" width="22.6640625" style="19" customWidth="1"/>
+    <col min="12509" max="12515" width="11.1640625" style="19" customWidth="1"/>
+    <col min="12516" max="12518" width="12.1640625" style="19" customWidth="1"/>
+    <col min="12519" max="12763" width="9.1640625" style="19"/>
+    <col min="12764" max="12764" width="22.6640625" style="19" customWidth="1"/>
+    <col min="12765" max="12771" width="11.1640625" style="19" customWidth="1"/>
+    <col min="12772" max="12774" width="12.1640625" style="19" customWidth="1"/>
+    <col min="12775" max="13019" width="9.1640625" style="19"/>
+    <col min="13020" max="13020" width="22.6640625" style="19" customWidth="1"/>
+    <col min="13021" max="13027" width="11.1640625" style="19" customWidth="1"/>
+    <col min="13028" max="13030" width="12.1640625" style="19" customWidth="1"/>
+    <col min="13031" max="13275" width="9.1640625" style="19"/>
+    <col min="13276" max="13276" width="22.6640625" style="19" customWidth="1"/>
+    <col min="13277" max="13283" width="11.1640625" style="19" customWidth="1"/>
+    <col min="13284" max="13286" width="12.1640625" style="19" customWidth="1"/>
+    <col min="13287" max="13531" width="9.1640625" style="19"/>
+    <col min="13532" max="13532" width="22.6640625" style="19" customWidth="1"/>
+    <col min="13533" max="13539" width="11.1640625" style="19" customWidth="1"/>
+    <col min="13540" max="13542" width="12.1640625" style="19" customWidth="1"/>
+    <col min="13543" max="13787" width="9.1640625" style="19"/>
+    <col min="13788" max="13788" width="22.6640625" style="19" customWidth="1"/>
+    <col min="13789" max="13795" width="11.1640625" style="19" customWidth="1"/>
+    <col min="13796" max="13798" width="12.1640625" style="19" customWidth="1"/>
+    <col min="13799" max="14043" width="9.1640625" style="19"/>
+    <col min="14044" max="14044" width="22.6640625" style="19" customWidth="1"/>
+    <col min="14045" max="14051" width="11.1640625" style="19" customWidth="1"/>
+    <col min="14052" max="14054" width="12.1640625" style="19" customWidth="1"/>
+    <col min="14055" max="14299" width="9.1640625" style="19"/>
+    <col min="14300" max="14300" width="22.6640625" style="19" customWidth="1"/>
+    <col min="14301" max="14307" width="11.1640625" style="19" customWidth="1"/>
+    <col min="14308" max="14310" width="12.1640625" style="19" customWidth="1"/>
+    <col min="14311" max="14555" width="9.1640625" style="19"/>
+    <col min="14556" max="14556" width="22.6640625" style="19" customWidth="1"/>
+    <col min="14557" max="14563" width="11.1640625" style="19" customWidth="1"/>
+    <col min="14564" max="14566" width="12.1640625" style="19" customWidth="1"/>
+    <col min="14567" max="14811" width="9.1640625" style="19"/>
+    <col min="14812" max="14812" width="22.6640625" style="19" customWidth="1"/>
+    <col min="14813" max="14819" width="11.1640625" style="19" customWidth="1"/>
+    <col min="14820" max="14822" width="12.1640625" style="19" customWidth="1"/>
+    <col min="14823" max="15067" width="9.1640625" style="19"/>
+    <col min="15068" max="15068" width="22.6640625" style="19" customWidth="1"/>
+    <col min="15069" max="15075" width="11.1640625" style="19" customWidth="1"/>
+    <col min="15076" max="15078" width="12.1640625" style="19" customWidth="1"/>
+    <col min="15079" max="15323" width="9.1640625" style="19"/>
+    <col min="15324" max="15324" width="22.6640625" style="19" customWidth="1"/>
+    <col min="15325" max="15331" width="11.1640625" style="19" customWidth="1"/>
+    <col min="15332" max="15334" width="12.1640625" style="19" customWidth="1"/>
+    <col min="15335" max="15579" width="9.1640625" style="19"/>
+    <col min="15580" max="15580" width="22.6640625" style="19" customWidth="1"/>
+    <col min="15581" max="15587" width="11.1640625" style="19" customWidth="1"/>
+    <col min="15588" max="15590" width="12.1640625" style="19" customWidth="1"/>
+    <col min="15591" max="15835" width="9.1640625" style="19"/>
+    <col min="15836" max="15836" width="22.6640625" style="19" customWidth="1"/>
+    <col min="15837" max="15843" width="11.1640625" style="19" customWidth="1"/>
+    <col min="15844" max="15846" width="12.1640625" style="19" customWidth="1"/>
+    <col min="15847" max="16091" width="9.1640625" style="19"/>
+    <col min="16092" max="16092" width="22.6640625" style="19" customWidth="1"/>
+    <col min="16093" max="16099" width="11.1640625" style="19" customWidth="1"/>
+    <col min="16100" max="16102" width="12.1640625" style="19" customWidth="1"/>
+    <col min="16103" max="16374" width="9.1640625" style="19"/>
+    <col min="16375" max="16384" width="9.1640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="48" t="s">
+      <c r="B1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="50">
-        <v>2018</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="43">
-        <v>2019</v>
-      </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="50">
-        <v>2018</v>
-      </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="43">
-        <v>2019</v>
-      </c>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="D1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>91</v>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="22">
+        <v>277874</v>
+      </c>
+      <c r="C2" s="22">
+        <v>281659</v>
+      </c>
+      <c r="D2" s="22">
+        <v>284357</v>
+      </c>
+      <c r="E2" s="22">
+        <v>287560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="22">
+        <v>65545</v>
+      </c>
+      <c r="C3" s="22">
+        <v>66590</v>
+      </c>
+      <c r="D3" s="22">
+        <v>67138</v>
+      </c>
+      <c r="E3" s="22">
+        <v>67905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="22">
+        <v>577754</v>
+      </c>
+      <c r="C4" s="22">
+        <v>586347</v>
+      </c>
+      <c r="D4" s="22">
+        <v>592588</v>
+      </c>
+      <c r="E4" s="22">
+        <v>599092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="22">
+        <v>85075</v>
+      </c>
+      <c r="C5" s="22">
+        <v>87244</v>
+      </c>
+      <c r="D5" s="22">
+        <v>88147</v>
+      </c>
+      <c r="E5" s="22">
+        <v>89152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B6" s="22">
-        <v>20163159</v>
+        <v>61612</v>
       </c>
       <c r="C6" s="22">
-        <v>20510177</v>
+        <v>62578</v>
       </c>
       <c r="D6" s="22">
-        <v>20749752</v>
+        <v>63242</v>
       </c>
       <c r="E6" s="22">
-        <v>20897804</v>
-      </c>
-      <c r="F6" s="22">
-        <v>21098827</v>
-      </c>
-      <c r="G6" s="22">
-        <v>21340267</v>
-      </c>
-      <c r="H6" s="22">
-        <v>21542540</v>
-      </c>
-      <c r="I6" s="20">
-        <v>100</v>
-      </c>
-      <c r="J6" s="20">
-        <v>100</v>
-      </c>
-      <c r="K6" s="20">
-        <v>100</v>
-      </c>
-      <c r="L6" s="20">
-        <v>100</v>
-      </c>
-      <c r="M6" s="20">
-        <v>100</v>
-      </c>
-      <c r="N6" s="6">
-        <v>100</v>
-      </c>
-      <c r="O6" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>31</v>
+        <v>63903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="22">
-        <v>1070863</v>
+        <v>33670</v>
       </c>
       <c r="C7" s="22">
-        <v>1084947</v>
+        <v>34284</v>
       </c>
       <c r="D7" s="22">
-        <v>1096174</v>
+        <v>34612</v>
       </c>
       <c r="E7" s="22">
-        <v>1101531</v>
-      </c>
-      <c r="F7" s="22">
-        <v>1118703</v>
-      </c>
-      <c r="G7" s="22">
-        <v>1130084</v>
-      </c>
-      <c r="H7" s="22">
-        <v>1142586</v>
-      </c>
-      <c r="I7" s="20">
-        <v>5.3</v>
-      </c>
-      <c r="J7" s="20">
-        <v>5.3</v>
-      </c>
-      <c r="K7" s="20">
-        <v>5.3</v>
-      </c>
-      <c r="L7" s="20">
-        <v>5.3</v>
-      </c>
-      <c r="M7" s="20">
-        <v>5.3</v>
-      </c>
-      <c r="N7" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="O7" s="6">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="22">
+        <v>74348</v>
+      </c>
+      <c r="C8" s="22">
+        <v>74270</v>
+      </c>
+      <c r="D8" s="22">
+        <v>75216</v>
+      </c>
+      <c r="E8" s="22">
+        <v>75765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="22">
+        <v>142626</v>
+      </c>
+      <c r="C9" s="22">
+        <v>144075</v>
+      </c>
+      <c r="D9" s="22">
+        <v>145476</v>
+      </c>
+      <c r="E9" s="22">
+        <v>146996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="22">
+        <v>417976</v>
+      </c>
+      <c r="C10" s="22">
+        <v>422247</v>
+      </c>
+      <c r="D10" s="22">
+        <v>426407</v>
+      </c>
+      <c r="E10" s="22">
+        <v>430388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="22">
+        <v>629996</v>
+      </c>
+      <c r="C11" s="22">
+        <v>636068</v>
+      </c>
+      <c r="D11" s="22">
+        <v>641902</v>
+      </c>
+      <c r="E11" s="22">
+        <v>648984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="23">
-        <v>272854</v>
-      </c>
-      <c r="C8" s="23">
-        <v>273884</v>
-      </c>
-      <c r="D8" s="23">
-        <v>278295</v>
-      </c>
-      <c r="E8" s="23">
-        <v>277874</v>
-      </c>
-      <c r="F8" s="23">
-        <v>281659</v>
-      </c>
-      <c r="G8" s="23">
-        <v>284357</v>
-      </c>
-      <c r="H8" s="23">
-        <v>287560</v>
-      </c>
-      <c r="I8" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="J8" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="K8" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="L8" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="M8" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="N8" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="O8" s="10">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="23">
-        <v>63698</v>
-      </c>
-      <c r="C9" s="23">
-        <v>64746</v>
-      </c>
-      <c r="D9" s="23">
-        <v>65434</v>
-      </c>
-      <c r="E9" s="23">
-        <v>65545</v>
-      </c>
-      <c r="F9" s="23">
-        <v>66590</v>
-      </c>
-      <c r="G9" s="23">
-        <v>67138</v>
-      </c>
-      <c r="H9" s="23">
-        <v>67905</v>
-      </c>
-      <c r="I9" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="J9" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="K9" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="L9" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="M9" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="B12" s="22">
+        <v>1679944</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1707520</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1727703</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1740745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="23">
-        <v>558472</v>
-      </c>
-      <c r="C10" s="23">
-        <v>568220</v>
-      </c>
-      <c r="D10" s="23">
-        <v>573506</v>
-      </c>
-      <c r="E10" s="23">
-        <v>577754</v>
-      </c>
-      <c r="F10" s="23">
-        <v>586347</v>
-      </c>
-      <c r="G10" s="23">
-        <v>592588</v>
-      </c>
-      <c r="H10" s="23">
-        <v>599092</v>
-      </c>
-      <c r="I10" s="21">
-        <v>2.8</v>
-      </c>
-      <c r="J10" s="21">
-        <v>2.8</v>
-      </c>
-      <c r="K10" s="21">
-        <v>2.8</v>
-      </c>
-      <c r="L10" s="21">
-        <v>2.8</v>
-      </c>
-      <c r="M10" s="21">
-        <v>2.8</v>
-      </c>
-      <c r="N10" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="O10" s="10">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="23">
-        <v>83379</v>
-      </c>
-      <c r="C11" s="23">
-        <v>84269</v>
-      </c>
-      <c r="D11" s="23">
-        <v>85133</v>
-      </c>
-      <c r="E11" s="23">
-        <v>85075</v>
-      </c>
-      <c r="F11" s="23">
-        <v>87244</v>
-      </c>
-      <c r="G11" s="23">
-        <v>88147</v>
-      </c>
-      <c r="H11" s="23">
-        <v>89152</v>
-      </c>
-      <c r="I11" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="J11" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="K11" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="L11" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="M11" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="O11" s="10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="23">
-        <v>59734</v>
-      </c>
-      <c r="C12" s="23">
-        <v>60591</v>
-      </c>
-      <c r="D12" s="23">
-        <v>60413</v>
-      </c>
-      <c r="E12" s="23">
-        <v>61612</v>
-      </c>
-      <c r="F12" s="23">
-        <v>62578</v>
-      </c>
-      <c r="G12" s="23">
-        <v>63242</v>
-      </c>
-      <c r="H12" s="23">
-        <v>63903</v>
-      </c>
-      <c r="I12" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="J12" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="K12" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="L12" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="M12" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="O12" s="10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="22">
+        <v>794604</v>
+      </c>
+      <c r="C13" s="22">
+        <v>801909</v>
+      </c>
+      <c r="D13" s="22">
+        <v>810326</v>
+      </c>
+      <c r="E13" s="22">
+        <v>817216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="22">
+        <v>877010</v>
+      </c>
+      <c r="C14" s="22">
+        <v>884430</v>
+      </c>
+      <c r="D14" s="22">
+        <v>893580</v>
+      </c>
+      <c r="E14" s="22">
+        <v>901572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="22">
+        <v>371183</v>
+      </c>
+      <c r="C15" s="22">
+        <v>372061</v>
+      </c>
+      <c r="D15" s="22">
+        <v>375491</v>
+      </c>
+      <c r="E15" s="22">
+        <v>379133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="22">
+        <v>531835</v>
+      </c>
+      <c r="C16" s="22">
+        <v>534427</v>
+      </c>
+      <c r="D16" s="22">
+        <v>539232</v>
+      </c>
+      <c r="E16" s="22">
+        <v>543977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="22">
+        <v>685299</v>
+      </c>
+      <c r="C17" s="22">
+        <v>689542</v>
+      </c>
+      <c r="D17" s="22">
+        <v>696088</v>
+      </c>
+      <c r="E17" s="22">
+        <v>701438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="23">
-        <v>32726</v>
-      </c>
-      <c r="C13" s="23">
-        <v>33236</v>
-      </c>
-      <c r="D13" s="23">
-        <v>33393</v>
-      </c>
-      <c r="E13" s="23">
-        <v>33670</v>
-      </c>
-      <c r="F13" s="23">
-        <v>34284</v>
-      </c>
-      <c r="G13" s="23">
-        <v>34612</v>
-      </c>
-      <c r="H13" s="23">
-        <v>34973</v>
-      </c>
-      <c r="I13" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="J13" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="K13" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="M13" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="N13" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="O13" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="22">
-        <v>3638122</v>
-      </c>
-      <c r="C14" s="22">
-        <v>3693875</v>
-      </c>
-      <c r="D14" s="22">
-        <v>3731562</v>
-      </c>
-      <c r="E14" s="22">
-        <v>3739493</v>
-      </c>
-      <c r="F14" s="22">
-        <v>3786089</v>
-      </c>
-      <c r="G14" s="22">
-        <v>3827030</v>
-      </c>
-      <c r="H14" s="22">
-        <v>3860095</v>
-      </c>
-      <c r="I14" s="20">
-        <v>18</v>
-      </c>
-      <c r="J14" s="20">
-        <v>18</v>
-      </c>
-      <c r="K14" s="20">
-        <v>18</v>
-      </c>
-      <c r="L14" s="20">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="M14" s="20">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="N14" s="6">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="O14" s="6">
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="23">
-        <v>72091</v>
-      </c>
-      <c r="C15" s="23">
-        <v>73025</v>
-      </c>
-      <c r="D15" s="23">
-        <v>74461</v>
-      </c>
-      <c r="E15" s="23">
-        <v>74348</v>
-      </c>
-      <c r="F15" s="23">
-        <v>74270</v>
-      </c>
-      <c r="G15" s="23">
-        <v>75216</v>
-      </c>
-      <c r="H15" s="23">
-        <v>75765</v>
-      </c>
-      <c r="I15" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="J15" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="K15" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="L15" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="M15" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="N15" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="O15" s="10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="23">
-        <v>138469</v>
-      </c>
-      <c r="C16" s="23">
-        <v>139580</v>
-      </c>
-      <c r="D16" s="23">
-        <v>141969</v>
-      </c>
-      <c r="E16" s="23">
-        <v>142626</v>
-      </c>
-      <c r="F16" s="23">
-        <v>144075</v>
-      </c>
-      <c r="G16" s="23">
-        <v>145476</v>
-      </c>
-      <c r="H16" s="23">
-        <v>146996</v>
-      </c>
-      <c r="I16" s="21">
-        <v>0.7</v>
-      </c>
-      <c r="J16" s="21">
-        <v>0.7</v>
-      </c>
-      <c r="K16" s="21">
-        <v>0.7</v>
-      </c>
-      <c r="L16" s="21">
-        <v>0.7</v>
-      </c>
-      <c r="M16" s="21">
-        <v>0.7</v>
-      </c>
-      <c r="N16" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="O16" s="10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="23">
-        <v>405573</v>
-      </c>
-      <c r="C17" s="23">
-        <v>412085</v>
-      </c>
-      <c r="D17" s="23">
-        <v>414704</v>
-      </c>
-      <c r="E17" s="23">
-        <v>417976</v>
-      </c>
-      <c r="F17" s="23">
-        <v>422247</v>
-      </c>
-      <c r="G17" s="23">
-        <v>426407</v>
-      </c>
-      <c r="H17" s="23">
-        <v>430388</v>
-      </c>
-      <c r="I17" s="21">
-        <v>2</v>
-      </c>
-      <c r="J17" s="21">
-        <v>2</v>
-      </c>
-      <c r="K17" s="21">
-        <v>2</v>
-      </c>
-      <c r="L17" s="21">
-        <v>2</v>
-      </c>
-      <c r="M17" s="21">
-        <v>2</v>
-      </c>
-      <c r="N17" s="10">
-        <v>2</v>
-      </c>
-      <c r="O17" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="23">
-        <v>612202</v>
-      </c>
-      <c r="C18" s="23">
-        <v>620066</v>
-      </c>
-      <c r="D18" s="23">
-        <v>625747</v>
-      </c>
-      <c r="E18" s="23">
-        <v>629996</v>
-      </c>
-      <c r="F18" s="23">
-        <v>636068</v>
-      </c>
-      <c r="G18" s="23">
-        <v>641902</v>
-      </c>
-      <c r="H18" s="23">
-        <v>648984</v>
-      </c>
-      <c r="I18" s="21">
-        <v>3</v>
-      </c>
-      <c r="J18" s="21">
-        <v>3</v>
-      </c>
-      <c r="K18" s="21">
-        <v>3</v>
-      </c>
-      <c r="L18" s="21">
-        <v>3</v>
-      </c>
-      <c r="M18" s="21">
-        <v>3</v>
-      </c>
-      <c r="N18" s="10">
-        <v>3</v>
-      </c>
-      <c r="O18" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="22">
+        <v>340853</v>
+      </c>
+      <c r="C18" s="22">
+        <v>342613</v>
+      </c>
+      <c r="D18" s="22">
+        <v>345867</v>
+      </c>
+      <c r="E18" s="22">
+        <v>348822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="22">
+        <v>191038</v>
+      </c>
+      <c r="C19" s="22">
+        <v>192086</v>
+      </c>
+      <c r="D19" s="22">
+        <v>194038</v>
+      </c>
+      <c r="E19" s="22">
+        <v>195858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="23">
-        <v>1643466</v>
-      </c>
-      <c r="C19" s="23">
-        <v>1668085</v>
-      </c>
-      <c r="D19" s="23">
-        <v>1683970</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1679944</v>
-      </c>
-      <c r="F19" s="23">
-        <v>1707520</v>
-      </c>
-      <c r="G19" s="23">
-        <v>1727703</v>
-      </c>
-      <c r="H19" s="23">
-        <v>1740745</v>
-      </c>
-      <c r="I19" s="21">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J19" s="21">
-        <v>8.1</v>
-      </c>
-      <c r="K19" s="21">
-        <v>8.1</v>
-      </c>
-      <c r="L19" s="21">
-        <v>8</v>
-      </c>
-      <c r="M19" s="21">
-        <v>8.1</v>
-      </c>
-      <c r="N19" s="10">
-        <v>8.1</v>
-      </c>
-      <c r="O19" s="10">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="B20" s="22">
+        <v>170243</v>
+      </c>
+      <c r="C20" s="22">
+        <v>170325</v>
+      </c>
+      <c r="D20" s="22">
+        <v>172358</v>
+      </c>
+      <c r="E20" s="22">
+        <v>174183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="23">
-        <v>766322</v>
-      </c>
-      <c r="C20" s="23">
-        <v>781035</v>
-      </c>
-      <c r="D20" s="23">
-        <v>790711</v>
-      </c>
-      <c r="E20" s="23">
-        <v>794604</v>
-      </c>
-      <c r="F20" s="23">
-        <v>801909</v>
-      </c>
-      <c r="G20" s="23">
-        <v>810326</v>
-      </c>
-      <c r="H20" s="23">
-        <v>817216</v>
-      </c>
-      <c r="I20" s="21">
-        <v>3.8</v>
-      </c>
-      <c r="J20" s="21">
-        <v>3.8</v>
-      </c>
-      <c r="K20" s="21">
-        <v>3.8</v>
-      </c>
-      <c r="L20" s="21">
-        <v>3.8</v>
-      </c>
-      <c r="M20" s="21">
-        <v>3.8</v>
-      </c>
-      <c r="N20" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="O20" s="10">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="B21" s="22">
-        <v>2726837</v>
+        <v>374682</v>
       </c>
       <c r="C21" s="22">
-        <v>2760112</v>
+        <v>375032</v>
       </c>
       <c r="D21" s="22">
-        <v>2792494</v>
+        <v>379387</v>
       </c>
       <c r="E21" s="22">
-        <v>2806181</v>
-      </c>
-      <c r="F21" s="22">
-        <v>2823073</v>
-      </c>
-      <c r="G21" s="22">
-        <v>2850257</v>
-      </c>
-      <c r="H21" s="22">
-        <v>2874942</v>
-      </c>
-      <c r="I21" s="20">
-        <v>13.5</v>
-      </c>
-      <c r="J21" s="20">
-        <v>13.5</v>
-      </c>
-      <c r="K21" s="20">
-        <v>13.5</v>
-      </c>
-      <c r="L21" s="20">
-        <v>13.4</v>
-      </c>
-      <c r="M21" s="20">
-        <v>13.4</v>
-      </c>
-      <c r="N21" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="O21" s="6">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>383094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="23">
-        <v>851327</v>
-      </c>
-      <c r="C22" s="23">
-        <v>860588</v>
-      </c>
-      <c r="D22" s="23">
-        <v>872317</v>
-      </c>
-      <c r="E22" s="23">
-        <v>877010</v>
-      </c>
-      <c r="F22" s="23">
-        <v>884430</v>
-      </c>
-      <c r="G22" s="23">
-        <v>893580</v>
-      </c>
-      <c r="H22" s="23">
-        <v>901572</v>
-      </c>
-      <c r="I22" s="21">
-        <v>4.2</v>
-      </c>
-      <c r="J22" s="21">
-        <v>4.2</v>
-      </c>
-      <c r="K22" s="21">
-        <v>4.2</v>
-      </c>
-      <c r="L22" s="21">
-        <v>4.2</v>
-      </c>
-      <c r="M22" s="21">
-        <v>4.2</v>
-      </c>
-      <c r="N22" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="O22" s="10">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="B22" s="22">
+        <v>322972</v>
+      </c>
+      <c r="C22" s="22">
+        <v>326694</v>
+      </c>
+      <c r="D22" s="22">
+        <v>330532</v>
+      </c>
+      <c r="E22" s="22">
+        <v>334286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="23">
-        <v>361794</v>
-      </c>
-      <c r="C23" s="23">
-        <v>365478</v>
-      </c>
-      <c r="D23" s="23">
-        <v>368748</v>
-      </c>
-      <c r="E23" s="23">
-        <v>371183</v>
-      </c>
-      <c r="F23" s="23">
-        <v>372061</v>
-      </c>
-      <c r="G23" s="23">
-        <v>375491</v>
-      </c>
-      <c r="H23" s="23">
-        <v>379133</v>
-      </c>
-      <c r="I23" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="J23" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="K23" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="L23" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="M23" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="N23" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="O23" s="10">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="22">
+        <v>124690</v>
+      </c>
+      <c r="C23" s="22">
+        <v>124786</v>
+      </c>
+      <c r="D23" s="22">
+        <v>126322</v>
+      </c>
+      <c r="E23" s="22">
+        <v>127941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="23">
-        <v>519926</v>
-      </c>
-      <c r="C24" s="23">
-        <v>526009</v>
-      </c>
-      <c r="D24" s="23">
-        <v>530614</v>
-      </c>
-      <c r="E24" s="23">
-        <v>531835</v>
-      </c>
-      <c r="F24" s="23">
-        <v>534427</v>
-      </c>
-      <c r="G24" s="23">
-        <v>539232</v>
-      </c>
-      <c r="H24" s="23">
-        <v>543977</v>
-      </c>
-      <c r="I24" s="21">
-        <v>2.6</v>
-      </c>
-      <c r="J24" s="21">
-        <v>2.6</v>
-      </c>
-      <c r="K24" s="21">
-        <v>2.6</v>
-      </c>
-      <c r="L24" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="M24" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="N24" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="O24" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="B24" s="22">
+        <v>56968</v>
+      </c>
+      <c r="C24" s="22">
+        <v>56609</v>
+      </c>
+      <c r="D24" s="22">
+        <v>57031</v>
+      </c>
+      <c r="E24" s="22">
+        <v>57106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="23">
-        <v>662321</v>
-      </c>
-      <c r="C25" s="23">
-        <v>673078</v>
-      </c>
-      <c r="D25" s="23">
-        <v>682922</v>
-      </c>
-      <c r="E25" s="23">
-        <v>685299</v>
-      </c>
-      <c r="F25" s="23">
-        <v>689542</v>
-      </c>
-      <c r="G25" s="23">
-        <v>696088</v>
-      </c>
-      <c r="H25" s="23">
-        <v>701438</v>
-      </c>
-      <c r="I25" s="21">
-        <v>3.3</v>
-      </c>
-      <c r="J25" s="21">
-        <v>3.3</v>
-      </c>
-      <c r="K25" s="21">
-        <v>3.3</v>
-      </c>
-      <c r="L25" s="21">
-        <v>3.3</v>
-      </c>
-      <c r="M25" s="21">
-        <v>3.3</v>
-      </c>
-      <c r="N25" s="10">
-        <v>3.3</v>
-      </c>
-      <c r="O25" s="10">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="B25" s="22">
+        <v>52632</v>
+      </c>
+      <c r="C25" s="22">
+        <v>52430</v>
+      </c>
+      <c r="D25" s="22">
+        <v>53044</v>
+      </c>
+      <c r="E25" s="22">
+        <v>53692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="23">
-        <v>331469</v>
-      </c>
-      <c r="C26" s="23">
-        <v>334960</v>
-      </c>
-      <c r="D26" s="23">
-        <v>337894</v>
-      </c>
-      <c r="E26" s="23">
-        <v>340853</v>
-      </c>
-      <c r="F26" s="23">
-        <v>342613</v>
-      </c>
-      <c r="G26" s="23">
-        <v>345867</v>
-      </c>
-      <c r="H26" s="23">
-        <v>348822</v>
-      </c>
-      <c r="I26" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="J26" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="K26" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="L26" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="M26" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="N26" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="O26" s="10">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B26" s="22">
+        <v>225859</v>
+      </c>
+      <c r="C26" s="22">
+        <v>227735</v>
+      </c>
+      <c r="D26" s="22">
+        <v>229939</v>
+      </c>
+      <c r="E26" s="22">
+        <v>232145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="B27" s="22">
-        <v>1254538</v>
+        <v>130201</v>
       </c>
       <c r="C27" s="22">
-        <v>1276889</v>
+        <v>131038</v>
       </c>
       <c r="D27" s="22">
-        <v>1286820</v>
+        <v>132438</v>
       </c>
       <c r="E27" s="22">
-        <v>1293225</v>
-      </c>
-      <c r="F27" s="22">
-        <v>1297962</v>
-      </c>
-      <c r="G27" s="22">
-        <v>1312714</v>
-      </c>
-      <c r="H27" s="22">
-        <v>1326160</v>
-      </c>
-      <c r="I27" s="20">
-        <v>6.2</v>
-      </c>
-      <c r="J27" s="20">
-        <v>6.2</v>
-      </c>
-      <c r="K27" s="20">
-        <v>6.2</v>
-      </c>
-      <c r="L27" s="20">
-        <v>6.2</v>
-      </c>
-      <c r="M27" s="20">
-        <v>6.2</v>
-      </c>
-      <c r="N27" s="6">
-        <v>6.2</v>
-      </c>
-      <c r="O27" s="6">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>134022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="23">
-        <v>186653</v>
-      </c>
-      <c r="C28" s="23">
-        <v>190179</v>
-      </c>
-      <c r="D28" s="23">
-        <v>190936</v>
-      </c>
-      <c r="E28" s="23">
-        <v>191038</v>
-      </c>
-      <c r="F28" s="23">
-        <v>192086</v>
-      </c>
-      <c r="G28" s="23">
-        <v>194038</v>
-      </c>
-      <c r="H28" s="23">
-        <v>195858</v>
-      </c>
-      <c r="I28" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="J28" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="K28" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="L28" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="M28" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="N28" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="O28" s="10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="B28" s="22">
+        <v>1056014</v>
+      </c>
+      <c r="C28" s="22">
+        <v>1073992</v>
+      </c>
+      <c r="D28" s="22">
+        <v>1087312</v>
+      </c>
+      <c r="E28" s="22">
+        <v>1100721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="23">
-        <v>165477</v>
-      </c>
-      <c r="C29" s="23">
-        <v>168173</v>
-      </c>
-      <c r="D29" s="23">
-        <v>169379</v>
-      </c>
-      <c r="E29" s="23">
-        <v>170243</v>
-      </c>
-      <c r="F29" s="23">
-        <v>170325</v>
-      </c>
-      <c r="G29" s="23">
-        <v>172358</v>
-      </c>
-      <c r="H29" s="23">
-        <v>174183</v>
-      </c>
-      <c r="I29" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="J29" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="K29" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="L29" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="M29" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="N29" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="O29" s="10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="B29" s="22">
+        <v>602535</v>
+      </c>
+      <c r="C29" s="22">
+        <v>607081</v>
+      </c>
+      <c r="D29" s="22">
+        <v>613105</v>
+      </c>
+      <c r="E29" s="22">
+        <v>619818</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="23">
-        <v>360357</v>
-      </c>
-      <c r="C30" s="23">
-        <v>367676</v>
-      </c>
-      <c r="D30" s="23">
-        <v>372695</v>
-      </c>
-      <c r="E30" s="23">
-        <v>374682</v>
-      </c>
-      <c r="F30" s="23">
-        <v>375032</v>
-      </c>
-      <c r="G30" s="23">
-        <v>379387</v>
-      </c>
-      <c r="H30" s="23">
-        <v>383094</v>
-      </c>
-      <c r="I30" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="J30" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="K30" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="L30" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="M30" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="N30" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="O30" s="10">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="B30" s="22">
+        <v>211073</v>
+      </c>
+      <c r="C30" s="22">
+        <v>211801</v>
+      </c>
+      <c r="D30" s="22">
+        <v>213735</v>
+      </c>
+      <c r="E30" s="22">
+        <v>215586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="23">
-        <v>312514</v>
-      </c>
-      <c r="C31" s="23">
-        <v>319013</v>
-      </c>
-      <c r="D31" s="23">
-        <v>321184</v>
-      </c>
-      <c r="E31" s="23">
-        <v>322972</v>
-      </c>
-      <c r="F31" s="23">
-        <v>326694</v>
-      </c>
-      <c r="G31" s="23">
-        <v>330532</v>
-      </c>
-      <c r="H31" s="23">
-        <v>334286</v>
-      </c>
-      <c r="I31" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="J31" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="K31" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="L31" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="M31" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="N31" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="O31" s="10">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="B31" s="22">
+        <v>261479</v>
+      </c>
+      <c r="C31" s="22">
+        <v>260428</v>
+      </c>
+      <c r="D31" s="22">
+        <v>263094</v>
+      </c>
+      <c r="E31" s="22">
+        <v>264853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="23">
-        <v>123942</v>
-      </c>
-      <c r="C32" s="23">
-        <v>124053</v>
-      </c>
-      <c r="D32" s="23">
-        <v>123226</v>
-      </c>
-      <c r="E32" s="23">
-        <v>124690</v>
-      </c>
-      <c r="F32" s="23">
-        <v>124786</v>
-      </c>
-      <c r="G32" s="23">
-        <v>126322</v>
-      </c>
-      <c r="H32" s="23">
-        <v>127941</v>
-      </c>
-      <c r="I32" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="J32" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="K32" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="L32" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="M32" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="N32" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="O32" s="10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="B32" s="22">
+        <v>116252</v>
+      </c>
+      <c r="C32" s="22">
+        <v>116930</v>
+      </c>
+      <c r="D32" s="22">
+        <v>118263</v>
+      </c>
+      <c r="E32" s="22">
+        <v>119497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="23">
-        <v>54380</v>
-      </c>
-      <c r="C33" s="23">
-        <v>55963</v>
-      </c>
-      <c r="D33" s="23">
-        <v>57018</v>
-      </c>
-      <c r="E33" s="23">
-        <v>56968</v>
-      </c>
-      <c r="F33" s="23">
-        <v>56609</v>
-      </c>
-      <c r="G33" s="23">
-        <v>57031</v>
-      </c>
-      <c r="H33" s="23">
-        <v>57106</v>
-      </c>
-      <c r="I33" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="J33" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="K33" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="L33" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="M33" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="N33" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="O33" s="10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="B33" s="22">
+        <v>572469</v>
+      </c>
+      <c r="C33" s="22">
+        <v>578700</v>
+      </c>
+      <c r="D33" s="22">
+        <v>585050</v>
+      </c>
+      <c r="E33" s="22">
+        <v>590711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="23">
-        <v>51214</v>
-      </c>
-      <c r="C34" s="23">
-        <v>51832</v>
-      </c>
-      <c r="D34" s="23">
-        <v>52382</v>
-      </c>
-      <c r="E34" s="23">
-        <v>52632</v>
-      </c>
-      <c r="F34" s="23">
-        <v>52430</v>
-      </c>
-      <c r="G34" s="23">
-        <v>53044</v>
-      </c>
-      <c r="H34" s="23">
-        <v>53692</v>
-      </c>
-      <c r="I34" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="J34" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="K34" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="L34" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="M34" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="N34" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="O34" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="B34" s="22">
+        <v>239176</v>
+      </c>
+      <c r="C34" s="22">
+        <v>242484</v>
+      </c>
+      <c r="D34" s="22">
+        <v>245083</v>
+      </c>
+      <c r="E34" s="22">
+        <v>247711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B35" s="22">
-        <v>4246722</v>
+        <v>369733</v>
       </c>
       <c r="C35" s="22">
-        <v>4314911</v>
+        <v>374250</v>
       </c>
       <c r="D35" s="22">
-        <v>4369330</v>
+        <v>378285</v>
       </c>
       <c r="E35" s="22">
-        <v>4404272</v>
-      </c>
-      <c r="F35" s="22">
-        <v>4448171</v>
-      </c>
-      <c r="G35" s="22">
-        <v>4496408</v>
-      </c>
-      <c r="H35" s="22">
-        <v>4542751</v>
-      </c>
-      <c r="I35" s="20">
-        <v>21.1</v>
-      </c>
-      <c r="J35" s="20">
-        <v>21</v>
-      </c>
-      <c r="K35" s="20">
-        <v>21.1</v>
-      </c>
-      <c r="L35" s="20">
-        <v>21.1</v>
-      </c>
-      <c r="M35" s="20">
-        <v>21.1</v>
-      </c>
-      <c r="N35" s="6">
-        <v>21.1</v>
-      </c>
-      <c r="O35" s="6">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>382275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="23">
-        <v>217370</v>
-      </c>
-      <c r="C36" s="23">
-        <v>220572</v>
-      </c>
-      <c r="D36" s="23">
-        <v>223141</v>
-      </c>
-      <c r="E36" s="23">
-        <v>225859</v>
-      </c>
-      <c r="F36" s="23">
-        <v>227735</v>
-      </c>
-      <c r="G36" s="23">
-        <v>229939</v>
-      </c>
-      <c r="H36" s="23">
-        <v>232145</v>
-      </c>
-      <c r="I36" s="21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J36" s="21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K36" s="21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L36" s="21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M36" s="21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N36" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O36" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="B36" s="22">
+        <v>540716</v>
+      </c>
+      <c r="C36" s="22">
+        <v>546007</v>
+      </c>
+      <c r="D36" s="22">
+        <v>551848</v>
+      </c>
+      <c r="E36" s="22">
+        <v>557144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="22">
+        <v>78766</v>
+      </c>
+      <c r="C37" s="22">
+        <v>77725</v>
+      </c>
+      <c r="D37" s="22">
+        <v>78256</v>
+      </c>
+      <c r="E37" s="22">
+        <v>78270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="22">
+        <v>355333</v>
+      </c>
+      <c r="C38" s="22">
+        <v>359405</v>
+      </c>
+      <c r="D38" s="22">
+        <v>364277</v>
+      </c>
+      <c r="E38" s="22">
+        <v>368556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="23">
-        <v>126089</v>
-      </c>
-      <c r="C37" s="23">
-        <v>128353</v>
-      </c>
-      <c r="D37" s="23">
-        <v>129033</v>
-      </c>
-      <c r="E37" s="23">
-        <v>130201</v>
-      </c>
-      <c r="F37" s="23">
-        <v>131038</v>
-      </c>
-      <c r="G37" s="23">
-        <v>132438</v>
-      </c>
-      <c r="H37" s="23">
-        <v>134022</v>
-      </c>
-      <c r="I37" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="J37" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="K37" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="L37" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="M37" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="N37" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="O37" s="10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="23">
-        <v>1020177</v>
-      </c>
-      <c r="C38" s="23">
-        <v>1032277</v>
-      </c>
-      <c r="D38" s="23">
-        <v>1048478</v>
-      </c>
-      <c r="E38" s="23">
-        <v>1056014</v>
-      </c>
-      <c r="F38" s="23">
-        <v>1073992</v>
-      </c>
-      <c r="G38" s="23">
-        <v>1087312</v>
-      </c>
-      <c r="H38" s="23">
-        <v>1100721</v>
-      </c>
-      <c r="I38" s="21">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J38" s="21">
-        <v>5</v>
-      </c>
-      <c r="K38" s="21">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="L38" s="21">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M38" s="21">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N38" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="O38" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="23">
-        <v>579993</v>
-      </c>
-      <c r="C39" s="23">
-        <v>588340</v>
-      </c>
-      <c r="D39" s="23">
-        <v>597746</v>
-      </c>
-      <c r="E39" s="23">
-        <v>602535</v>
-      </c>
-      <c r="F39" s="23">
-        <v>607081</v>
-      </c>
-      <c r="G39" s="23">
-        <v>613105</v>
-      </c>
-      <c r="H39" s="23">
-        <v>619818</v>
-      </c>
-      <c r="I39" s="21">
-        <v>2.9</v>
-      </c>
-      <c r="J39" s="21">
-        <v>2.9</v>
-      </c>
-      <c r="K39" s="21">
-        <v>2.9</v>
-      </c>
-      <c r="L39" s="21">
-        <v>2.9</v>
-      </c>
-      <c r="M39" s="21">
-        <v>2.9</v>
-      </c>
-      <c r="N39" s="10">
-        <v>2.9</v>
-      </c>
-      <c r="O39" s="10">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="22">
+        <v>102370</v>
+      </c>
+      <c r="C39" s="22">
+        <v>102579</v>
+      </c>
+      <c r="D39" s="22">
+        <v>103814</v>
+      </c>
+      <c r="E39" s="22">
+        <v>104349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="23">
-        <v>204567</v>
-      </c>
-      <c r="C40" s="23">
-        <v>207646</v>
-      </c>
-      <c r="D40" s="23">
-        <v>209065</v>
-      </c>
-      <c r="E40" s="23">
-        <v>211073</v>
-      </c>
-      <c r="F40" s="23">
-        <v>211801</v>
-      </c>
-      <c r="G40" s="23">
-        <v>213735</v>
-      </c>
-      <c r="H40" s="23">
-        <v>215586</v>
-      </c>
-      <c r="I40" s="21">
-        <v>1</v>
-      </c>
-      <c r="J40" s="21">
-        <v>1</v>
-      </c>
-      <c r="K40" s="21">
-        <v>1</v>
-      </c>
-      <c r="L40" s="21">
-        <v>1</v>
-      </c>
-      <c r="M40" s="21">
-        <v>1</v>
-      </c>
-      <c r="N40" s="10">
-        <v>1</v>
-      </c>
-      <c r="O40" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="22">
+        <v>205854</v>
+      </c>
+      <c r="C40" s="22">
+        <v>204458</v>
+      </c>
+      <c r="D40" s="22">
+        <v>206139</v>
+      </c>
+      <c r="E40" s="22">
+        <v>206254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="23">
-        <v>251745</v>
-      </c>
-      <c r="C41" s="23">
-        <v>256655</v>
-      </c>
-      <c r="D41" s="23">
-        <v>259273</v>
-      </c>
-      <c r="E41" s="23">
-        <v>261479</v>
-      </c>
-      <c r="F41" s="23">
-        <v>260428</v>
-      </c>
-      <c r="G41" s="23">
-        <v>263094</v>
-      </c>
-      <c r="H41" s="23">
-        <v>264853</v>
-      </c>
-      <c r="I41" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="J41" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="K41" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="L41" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="M41" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="N41" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="O41" s="10">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="B41" s="22">
+        <v>1842447</v>
+      </c>
+      <c r="C41" s="22">
+        <v>1852143</v>
+      </c>
+      <c r="D41" s="22">
+        <v>1881553</v>
+      </c>
+      <c r="E41" s="22">
+        <v>1896063</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="23">
-        <v>112674</v>
-      </c>
-      <c r="C42" s="23">
-        <v>114940</v>
-      </c>
-      <c r="D42" s="23">
-        <v>115471</v>
-      </c>
-      <c r="E42" s="23">
-        <v>116252</v>
-      </c>
-      <c r="F42" s="23">
-        <v>116930</v>
-      </c>
-      <c r="G42" s="23">
-        <v>118263</v>
-      </c>
-      <c r="H42" s="23">
-        <v>119497</v>
-      </c>
-      <c r="I42" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="J42" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="K42" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="L42" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="M42" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="N42" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="O42" s="10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="B42" s="22">
+        <v>378489</v>
+      </c>
+      <c r="C42" s="22">
+        <v>383690</v>
+      </c>
+      <c r="D42" s="22">
+        <v>388731</v>
+      </c>
+      <c r="E42" s="22">
+        <v>392348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="23">
-        <v>552000</v>
-      </c>
-      <c r="C43" s="23">
-        <v>563371</v>
-      </c>
-      <c r="D43" s="23">
-        <v>566923</v>
-      </c>
-      <c r="E43" s="23">
-        <v>572469</v>
-      </c>
-      <c r="F43" s="23">
-        <v>578700</v>
-      </c>
-      <c r="G43" s="23">
-        <v>585050</v>
-      </c>
-      <c r="H43" s="23">
-        <v>590711</v>
-      </c>
-      <c r="I43" s="21">
-        <v>2.7</v>
-      </c>
-      <c r="J43" s="21">
-        <v>2.7</v>
-      </c>
-      <c r="K43" s="21">
-        <v>2.7</v>
-      </c>
-      <c r="L43" s="21">
-        <v>2.7</v>
-      </c>
-      <c r="M43" s="21">
-        <v>2.7</v>
-      </c>
-      <c r="N43" s="10">
-        <v>2.7</v>
-      </c>
-      <c r="O43" s="10">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="B43" s="22">
+        <v>78707</v>
+      </c>
+      <c r="C43" s="22">
+        <v>79440</v>
+      </c>
+      <c r="D43" s="22">
+        <v>80446</v>
+      </c>
+      <c r="E43" s="22">
+        <v>81493</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="23">
-        <v>228541</v>
-      </c>
-      <c r="C44" s="23">
-        <v>232474</v>
-      </c>
-      <c r="D44" s="23">
-        <v>235528</v>
-      </c>
-      <c r="E44" s="23">
-        <v>239176</v>
-      </c>
-      <c r="F44" s="23">
-        <v>242484</v>
-      </c>
-      <c r="G44" s="23">
-        <v>245083</v>
-      </c>
-      <c r="H44" s="23">
-        <v>247711</v>
-      </c>
-      <c r="I44" s="21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J44" s="21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K44" s="21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L44" s="21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M44" s="21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N44" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O44" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="B44" s="22">
+        <v>51390</v>
+      </c>
+      <c r="C44" s="22">
+        <v>51326</v>
+      </c>
+      <c r="D44" s="22">
+        <v>51933</v>
+      </c>
+      <c r="E44" s="22">
+        <v>52470</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="23">
-        <v>355119</v>
-      </c>
-      <c r="C45" s="23">
-        <v>362874</v>
-      </c>
-      <c r="D45" s="23">
-        <v>368694</v>
-      </c>
-      <c r="E45" s="23">
-        <v>369733</v>
-      </c>
-      <c r="F45" s="23">
-        <v>374250</v>
-      </c>
-      <c r="G45" s="23">
-        <v>378285</v>
-      </c>
-      <c r="H45" s="23">
-        <v>382275</v>
-      </c>
-      <c r="I45" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="J45" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="K45" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="L45" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="M45" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="N45" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="O45" s="10">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="B45" s="22">
+        <v>181214</v>
+      </c>
+      <c r="C45" s="22">
+        <v>184767</v>
+      </c>
+      <c r="D45" s="22">
+        <v>187416</v>
+      </c>
+      <c r="E45" s="22">
+        <v>189809</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="23">
-        <v>523334</v>
-      </c>
-      <c r="C46" s="23">
-        <v>530306</v>
-      </c>
-      <c r="D46" s="23">
-        <v>537214</v>
-      </c>
-      <c r="E46" s="23">
-        <v>540716</v>
-      </c>
-      <c r="F46" s="23">
-        <v>546007</v>
-      </c>
-      <c r="G46" s="23">
-        <v>551848</v>
-      </c>
-      <c r="H46" s="23">
-        <v>557144</v>
-      </c>
-      <c r="I46" s="21">
-        <v>2.6</v>
-      </c>
-      <c r="J46" s="21">
-        <v>2.6</v>
-      </c>
-      <c r="K46" s="21">
-        <v>2.6</v>
-      </c>
-      <c r="L46" s="21">
-        <v>2.6</v>
-      </c>
-      <c r="M46" s="21">
-        <v>2.6</v>
-      </c>
-      <c r="N46" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="O46" s="10">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="B46" s="22">
+        <v>39613</v>
+      </c>
+      <c r="C46" s="22">
+        <v>39393</v>
+      </c>
+      <c r="D46" s="22">
+        <v>39788</v>
+      </c>
+      <c r="E46" s="22">
+        <v>39610</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="23">
-        <v>75115</v>
-      </c>
-      <c r="C47" s="23">
-        <v>77104</v>
-      </c>
-      <c r="D47" s="23">
-        <v>78766</v>
-      </c>
-      <c r="E47" s="23">
-        <v>78766</v>
-      </c>
-      <c r="F47" s="23">
-        <v>77725</v>
-      </c>
-      <c r="G47" s="23">
-        <v>78256</v>
-      </c>
-      <c r="H47" s="23">
-        <v>78270</v>
-      </c>
-      <c r="I47" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="J47" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="K47" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="L47" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="M47" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="N47" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="O47" s="10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
+      </c>
+      <c r="B47" s="22">
+        <v>55591</v>
+      </c>
+      <c r="C47" s="22">
+        <v>54941</v>
+      </c>
+      <c r="D47" s="22">
+        <v>55495</v>
+      </c>
+      <c r="E47" s="22">
+        <v>55430</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B48" s="22">
-        <v>2387296</v>
+        <v>3052871</v>
       </c>
       <c r="C48" s="22">
-        <v>2439999</v>
+        <v>3087669</v>
       </c>
       <c r="D48" s="22">
-        <v>2481337</v>
+        <v>3123732</v>
       </c>
       <c r="E48" s="22">
-        <v>2506005</v>
-      </c>
-      <c r="F48" s="22">
-        <v>2518586</v>
-      </c>
-      <c r="G48" s="22">
-        <v>2555783</v>
-      </c>
-      <c r="H48" s="22">
-        <v>2575223</v>
-      </c>
-      <c r="I48" s="20">
-        <v>11.8</v>
-      </c>
-      <c r="J48" s="20">
-        <v>11.9</v>
-      </c>
-      <c r="K48" s="20">
-        <v>12</v>
-      </c>
-      <c r="L48" s="20">
-        <v>12</v>
-      </c>
-      <c r="M48" s="20">
-        <v>11.9</v>
-      </c>
-      <c r="N48" s="6">
-        <v>12</v>
-      </c>
-      <c r="O48" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3155224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="23">
-        <v>340673</v>
-      </c>
-      <c r="C49" s="23">
-        <v>345474</v>
-      </c>
-      <c r="D49" s="23">
-        <v>351709</v>
-      </c>
-      <c r="E49" s="23">
-        <v>355333</v>
-      </c>
-      <c r="F49" s="23">
-        <v>359405</v>
-      </c>
-      <c r="G49" s="23">
-        <v>364277</v>
-      </c>
-      <c r="H49" s="23">
-        <v>368556</v>
-      </c>
-      <c r="I49" s="21">
-        <v>1.7</v>
-      </c>
-      <c r="J49" s="21">
-        <v>1.7</v>
-      </c>
-      <c r="K49" s="21">
-        <v>1.7</v>
-      </c>
-      <c r="L49" s="21">
-        <v>1.7</v>
-      </c>
-      <c r="M49" s="21">
-        <v>1.7</v>
-      </c>
-      <c r="N49" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="O49" s="10">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="B49" s="22">
+        <v>95369</v>
+      </c>
+      <c r="C49" s="22">
+        <v>96094</v>
+      </c>
+      <c r="D49" s="22">
+        <v>96832</v>
+      </c>
+      <c r="E49" s="22">
+        <v>97664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="23">
-        <v>97489</v>
-      </c>
-      <c r="C50" s="23">
-        <v>99742</v>
-      </c>
-      <c r="D50" s="23">
-        <v>101586</v>
-      </c>
-      <c r="E50" s="23">
-        <v>102370</v>
-      </c>
-      <c r="F50" s="23">
-        <v>102579</v>
-      </c>
-      <c r="G50" s="23">
-        <v>103814</v>
-      </c>
-      <c r="H50" s="23">
-        <v>104349</v>
-      </c>
-      <c r="I50" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="J50" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K50" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="L50" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="M50" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="N50" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="O50" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="B50" s="22">
+        <v>173518</v>
+      </c>
+      <c r="C50" s="22">
+        <v>174569</v>
+      </c>
+      <c r="D50" s="22">
+        <v>176862</v>
+      </c>
+      <c r="E50" s="22">
+        <v>178622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="23">
-        <v>198108</v>
-      </c>
-      <c r="C51" s="23">
-        <v>201871</v>
-      </c>
-      <c r="D51" s="23">
-        <v>204384</v>
-      </c>
-      <c r="E51" s="23">
-        <v>205854</v>
-      </c>
-      <c r="F51" s="23">
-        <v>204458</v>
-      </c>
-      <c r="G51" s="23">
-        <v>206139</v>
-      </c>
-      <c r="H51" s="23">
-        <v>206254</v>
-      </c>
-      <c r="I51" s="21">
-        <v>1</v>
-      </c>
-      <c r="J51" s="21">
-        <v>1</v>
-      </c>
-      <c r="K51" s="21">
-        <v>1</v>
-      </c>
-      <c r="L51" s="21">
-        <v>1</v>
-      </c>
-      <c r="M51" s="21">
-        <v>1</v>
-      </c>
-      <c r="N51" s="10">
-        <v>1</v>
-      </c>
-      <c r="O51" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="B51" s="22">
+        <v>244544</v>
+      </c>
+      <c r="C51" s="22">
+        <v>247562</v>
+      </c>
+      <c r="D51" s="22">
+        <v>250402</v>
+      </c>
+      <c r="E51" s="22">
+        <v>253036</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="23">
-        <v>1751027</v>
-      </c>
-      <c r="C52" s="23">
-        <v>1792912</v>
-      </c>
-      <c r="D52" s="23">
-        <v>1823659</v>
-      </c>
-      <c r="E52" s="23">
-        <v>1842447</v>
-      </c>
-      <c r="F52" s="23">
-        <v>1852143</v>
-      </c>
-      <c r="G52" s="23">
-        <v>1881553</v>
-      </c>
-      <c r="H52" s="23">
-        <v>1896063</v>
-      </c>
-      <c r="I52" s="21">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J52" s="21">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="K52" s="21">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L52" s="21">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="M52" s="21">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N52" s="10">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="O52" s="10">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53" s="22">
-        <v>700121</v>
-      </c>
-      <c r="C53" s="22">
-        <v>713632</v>
-      </c>
-      <c r="D53" s="22">
-        <v>722371</v>
-      </c>
-      <c r="E53" s="22">
-        <v>729412</v>
-      </c>
-      <c r="F53" s="22">
-        <v>738616</v>
-      </c>
-      <c r="G53" s="22">
-        <v>748313</v>
-      </c>
-      <c r="H53" s="22">
-        <v>755730</v>
-      </c>
-      <c r="I53" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="J53" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="K53" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="L53" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="M53" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="N53" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="O53" s="6">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="23">
-        <v>362721</v>
-      </c>
-      <c r="C54" s="23">
-        <v>370477</v>
-      </c>
-      <c r="D54" s="23">
-        <v>375312</v>
-      </c>
-      <c r="E54" s="23">
-        <v>378489</v>
-      </c>
-      <c r="F54" s="23">
-        <v>383690</v>
-      </c>
-      <c r="G54" s="23">
-        <v>388731</v>
-      </c>
-      <c r="H54" s="23">
-        <v>392348</v>
-      </c>
-      <c r="I54" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="J54" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="K54" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="L54" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="M54" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="N54" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="O54" s="10">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="23">
-        <v>75435</v>
-      </c>
-      <c r="C55" s="23">
-        <v>76681</v>
-      </c>
-      <c r="D55" s="23">
-        <v>77384</v>
-      </c>
-      <c r="E55" s="23">
-        <v>78707</v>
-      </c>
-      <c r="F55" s="23">
-        <v>79440</v>
-      </c>
-      <c r="G55" s="23">
-        <v>80446</v>
-      </c>
-      <c r="H55" s="23">
-        <v>81493</v>
-      </c>
-      <c r="I55" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="J55" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="K55" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="L55" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="M55" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="N55" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="O55" s="10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="23">
-        <v>49190</v>
-      </c>
-      <c r="C56" s="23">
-        <v>50111</v>
-      </c>
-      <c r="D56" s="23">
-        <v>50615</v>
-      </c>
-      <c r="E56" s="23">
-        <v>51390</v>
-      </c>
-      <c r="F56" s="23">
-        <v>51326</v>
-      </c>
-      <c r="G56" s="23">
-        <v>51933</v>
-      </c>
-      <c r="H56" s="23">
-        <v>52470</v>
-      </c>
-      <c r="I56" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="J56" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="K56" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="L56" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="M56" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="N56" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="O56" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="23">
-        <v>174344</v>
-      </c>
-      <c r="C57" s="23">
-        <v>177406</v>
-      </c>
-      <c r="D57" s="23">
-        <v>179586</v>
-      </c>
-      <c r="E57" s="23">
-        <v>181214</v>
-      </c>
-      <c r="F57" s="23">
-        <v>184767</v>
-      </c>
-      <c r="G57" s="23">
-        <v>187416</v>
-      </c>
-      <c r="H57" s="23">
-        <v>189809</v>
-      </c>
-      <c r="I57" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="J57" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="K57" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="L57" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="M57" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="N57" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="O57" s="10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="23">
-        <v>38431</v>
-      </c>
-      <c r="C58" s="23">
-        <v>38957</v>
-      </c>
-      <c r="D58" s="23">
-        <v>39473</v>
-      </c>
-      <c r="E58" s="23">
-        <v>39613</v>
-      </c>
-      <c r="F58" s="23">
-        <v>39393</v>
-      </c>
-      <c r="G58" s="23">
-        <v>39788</v>
-      </c>
-      <c r="H58" s="23">
-        <v>39610</v>
-      </c>
-      <c r="I58" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="J58" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="K58" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="L58" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="M58" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="N58" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="O58" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="22">
-        <v>4023459</v>
-      </c>
-      <c r="C59" s="22">
-        <v>4109578</v>
-      </c>
-      <c r="D59" s="22">
-        <v>4152244</v>
-      </c>
-      <c r="E59" s="22">
-        <v>4199473</v>
-      </c>
-      <c r="F59" s="22">
-        <v>4248594</v>
-      </c>
-      <c r="G59" s="22">
-        <v>4299733</v>
-      </c>
-      <c r="H59" s="22">
-        <v>4343748</v>
-      </c>
-      <c r="I59" s="20">
-        <v>20</v>
-      </c>
-      <c r="J59" s="20">
-        <v>20</v>
-      </c>
-      <c r="K59" s="20">
-        <v>20</v>
-      </c>
-      <c r="L59" s="20">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="M59" s="20">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="N59" s="6">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="O59" s="6">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="23">
-        <v>53563</v>
-      </c>
-      <c r="C60" s="23">
-        <v>54373</v>
-      </c>
-      <c r="D60" s="23">
-        <v>55410</v>
-      </c>
-      <c r="E60" s="23">
-        <v>55591</v>
-      </c>
-      <c r="F60" s="23">
-        <v>54941</v>
-      </c>
-      <c r="G60" s="23">
-        <v>55495</v>
-      </c>
-      <c r="H60" s="23">
-        <v>55430</v>
-      </c>
-      <c r="I60" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="J60" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="K60" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="L60" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="M60" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="N60" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="O60" s="10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="23">
-        <v>2928096</v>
-      </c>
-      <c r="C61" s="23">
-        <v>2992623</v>
-      </c>
-      <c r="D61" s="23">
-        <v>3017340</v>
-      </c>
-      <c r="E61" s="23">
-        <v>3052871</v>
-      </c>
-      <c r="F61" s="23">
-        <v>3087669</v>
-      </c>
-      <c r="G61" s="23">
-        <v>3123732</v>
-      </c>
-      <c r="H61" s="23">
-        <v>3155224</v>
-      </c>
-      <c r="I61" s="21">
-        <v>14.5</v>
-      </c>
-      <c r="J61" s="21">
-        <v>14.6</v>
-      </c>
-      <c r="K61" s="21">
-        <v>14.5</v>
-      </c>
-      <c r="L61" s="21">
-        <v>14.6</v>
-      </c>
-      <c r="M61" s="21">
-        <v>14.6</v>
-      </c>
-      <c r="N61" s="10">
-        <v>14.6</v>
-      </c>
-      <c r="O61" s="10">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="23">
-        <v>91947</v>
-      </c>
-      <c r="C62" s="23">
-        <v>93589</v>
-      </c>
-      <c r="D62" s="23">
-        <v>94288</v>
-      </c>
-      <c r="E62" s="23">
-        <v>95369</v>
-      </c>
-      <c r="F62" s="23">
-        <v>96094</v>
-      </c>
-      <c r="G62" s="23">
-        <v>96832</v>
-      </c>
-      <c r="H62" s="23">
-        <v>97664</v>
-      </c>
-      <c r="I62" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="J62" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="K62" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="L62" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="M62" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="N62" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="O62" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" s="23">
-        <v>165443</v>
-      </c>
-      <c r="C63" s="23">
-        <v>167929</v>
-      </c>
-      <c r="D63" s="23">
-        <v>170349</v>
-      </c>
-      <c r="E63" s="23">
-        <v>173518</v>
-      </c>
-      <c r="F63" s="23">
-        <v>174569</v>
-      </c>
-      <c r="G63" s="23">
-        <v>176862</v>
-      </c>
-      <c r="H63" s="23">
-        <v>178622</v>
-      </c>
-      <c r="I63" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="J63" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="K63" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="L63" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="M63" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="N63" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="O63" s="10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="23">
-        <v>234832</v>
-      </c>
-      <c r="C64" s="23">
-        <v>238125</v>
-      </c>
-      <c r="D64" s="23">
-        <v>241630</v>
-      </c>
-      <c r="E64" s="23">
-        <v>244544</v>
-      </c>
-      <c r="F64" s="23">
-        <v>247562</v>
-      </c>
-      <c r="G64" s="23">
-        <v>250402</v>
-      </c>
-      <c r="H64" s="23">
-        <v>253036</v>
-      </c>
-      <c r="I64" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="J64" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="K64" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="L64" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="M64" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="N64" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="O64" s="10">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="23">
-        <v>549578</v>
-      </c>
-      <c r="C65" s="23">
-        <v>562939</v>
-      </c>
-      <c r="D65" s="23">
-        <v>573226</v>
-      </c>
-      <c r="E65" s="23">
+      <c r="B52" s="22">
         <v>577581</v>
       </c>
-      <c r="F65" s="23">
+      <c r="C52" s="22">
         <v>587758</v>
       </c>
-      <c r="G65" s="23">
+      <c r="D52" s="22">
         <v>596412</v>
       </c>
-      <c r="H65" s="23">
+      <c r="E52" s="22">
         <v>603772</v>
       </c>
-      <c r="I65" s="21">
-        <v>2.7</v>
-      </c>
-      <c r="J65" s="21">
-        <v>2.7</v>
-      </c>
-      <c r="K65" s="21">
-        <v>2.8</v>
-      </c>
-      <c r="L65" s="21">
-        <v>2.8</v>
-      </c>
-      <c r="M65" s="21">
-        <v>2.8</v>
-      </c>
-      <c r="N65" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="O65" s="10">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="26"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="32"/>
-    </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" s="23">
-        <v>115199</v>
-      </c>
-      <c r="C67" s="23">
-        <v>116233</v>
-      </c>
-      <c r="D67" s="23">
-        <v>117417</v>
-      </c>
-      <c r="E67" s="23">
-        <v>118213</v>
-      </c>
-      <c r="F67" s="23">
-        <v>119036</v>
-      </c>
-      <c r="G67" s="23">
-        <v>119946</v>
-      </c>
-      <c r="H67" s="23">
-        <v>121310</v>
-      </c>
-      <c r="I67" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="J67" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="K67" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="L67" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="M67" s="21">
-        <v>0.6</v>
-      </c>
-      <c r="N67" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="O67" s="10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-    </row>
-    <row r="69" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A68:O68"/>
-    <mergeCell ref="A69:O69"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="I2:O3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="M4:O4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
